--- a/2020schedule.xlsx
+++ b/2020schedule.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
   <si>
     <t>在此工作表中创建项目日程安排。
 在单元格 B1 中输入此项目的标题。
@@ -312,6 +312,220 @@
   </si>
   <si>
     <t>11、lesson 19-20 Tired and thirsty</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>41、</t>
+  </si>
+  <si>
+    <t>42、</t>
+  </si>
+  <si>
+    <t>43、</t>
+  </si>
+  <si>
+    <t>44、</t>
+  </si>
+  <si>
+    <t>45、</t>
+  </si>
+  <si>
+    <t>46、</t>
+  </si>
+  <si>
+    <t>47、</t>
+  </si>
+  <si>
+    <t>48、</t>
+  </si>
+  <si>
+    <t>49、</t>
+  </si>
+  <si>
+    <t>50、</t>
+  </si>
+  <si>
+    <t>51、</t>
+  </si>
+  <si>
+    <t>52、</t>
+  </si>
+  <si>
+    <t>53、</t>
+  </si>
+  <si>
+    <t>54、</t>
+  </si>
+  <si>
+    <t>55、</t>
+  </si>
+  <si>
+    <t>56、</t>
+  </si>
+  <si>
+    <t>57、</t>
+  </si>
+  <si>
+    <t>58、</t>
+  </si>
+  <si>
+    <t>59、</t>
+  </si>
+  <si>
+    <t>60、</t>
+  </si>
+  <si>
+    <t>61、</t>
+  </si>
+  <si>
+    <t>62、</t>
+  </si>
+  <si>
+    <t>63、</t>
+  </si>
+  <si>
+    <t>64、</t>
+  </si>
+  <si>
+    <t>65、</t>
+  </si>
+  <si>
+    <t>66、</t>
+  </si>
+  <si>
+    <t>67、</t>
+  </si>
+  <si>
+    <t>68、</t>
+  </si>
+  <si>
+    <t>69、</t>
+  </si>
+  <si>
+    <t>70、</t>
+  </si>
+  <si>
+    <t>71、</t>
+  </si>
+  <si>
+    <t>72、</t>
+  </si>
+  <si>
+    <t>73、</t>
+  </si>
+  <si>
+    <t>74、</t>
+  </si>
+  <si>
+    <t>13、lesson23-24 Which glasses？</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、lesson25-26 Mr.Smith's kitchen</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、lesson 27-28 Mrs.Smith's living room</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、lesson 29-30 Come in,Amy</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、lesson 31-32 Where's Sally？</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、lesson 33-34 A fine day</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>19、lesson 35-36 Our village</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>20、lesson 37-38 Making a bookcase</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>21、lesson 39-40 Don't drop it!</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>22、lesson 41-42 Penny's bag</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>23、lesson 43-44 Hurry up!</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>24、lesson 45-46 The boss's letter</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>25、lesson 47-48 A cup of coffee</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>26、lesson 49-50 At the butcher's</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>27、lesson 51-52 A pleasant climate</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>28、lesson 53-54 An interesting climate</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>29、lesson 55-56 The Sawyer family</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>30、lesson 57-58 An unusual day</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>31、lesson 59-60 Is that all？</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>32、lesson 61-62 A bad cold</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>33、lesson 63-64 Thank you,doctor</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>34、lesson 65-66 Not a baby</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>35、lesson 67-68 The weekend</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>36、lesson 69-70 The car race</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>37、lesson 71-72 He's awful</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>38、lesson 73-74 The way to King Street</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>39、lesson 75-76 Uncomfortable shoes</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>40、lesson 77-78 Terrible toothache</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1402,6 +1616,13 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1414,13 +1635,6 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1478,7 +1692,217 @@
     <cellStyle name="着色 6" xfId="50" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="27" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="86">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2137,19 +2561,19 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="64"/>
-      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="wholeTable" dxfId="85"/>
+      <tableStyleElement type="headerRow" dxfId="84"/>
     </tableStyle>
     <tableStyle name="待办事项列表" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="totalRow" dxfId="60"/>
-      <tableStyleElement type="firstColumn" dxfId="59"/>
-      <tableStyleElement type="lastColumn" dxfId="58"/>
-      <tableStyleElement type="firstRowStripe" dxfId="57"/>
-      <tableStyleElement type="secondRowStripe" dxfId="56"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="55"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="54"/>
+      <tableStyleElement type="wholeTable" dxfId="83"/>
+      <tableStyleElement type="headerRow" dxfId="82"/>
+      <tableStyleElement type="totalRow" dxfId="81"/>
+      <tableStyleElement type="firstColumn" dxfId="80"/>
+      <tableStyleElement type="lastColumn" dxfId="79"/>
+      <tableStyleElement type="firstRowStripe" dxfId="78"/>
+      <tableStyleElement type="secondRowStripe" dxfId="77"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="76"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="75"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2564,11 +2988,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL77"/>
+  <dimension ref="A1:BL109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2614,117 +3038,117 @@
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="98">
+      <c r="D3" s="96"/>
+      <c r="E3" s="101">
         <v>43832</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="98">
         <f>I5</f>
         <v>43828</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
         <f>P5</f>
         <v>43835</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
         <f>W5</f>
         <v>43842</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
         <f>AD5</f>
         <v>43849</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
         <f>AK5</f>
         <v>43856</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
         <f>AR5</f>
         <v>43863</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
         <f>AY5</f>
         <v>43870</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
         <f>BF5</f>
         <v>43877</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="I5" s="68">
         <f>Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>43828</v>
@@ -3282,7 +3706,7 @@
       <c r="F8" s="72"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H74" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H106" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="51"/>
@@ -3351,7 +3775,7 @@
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>43832</v>
@@ -4240,7 +4664,9 @@
         <v>65</v>
       </c>
       <c r="C20" s="55"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
       <c r="E20" s="2">
         <v>43832</v>
       </c>
@@ -4318,7 +4744,9 @@
         <v>66</v>
       </c>
       <c r="C21" s="55"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
       <c r="E21" s="2">
         <f>F20+1</f>
         <v>43836</v>
@@ -4397,7 +4825,9 @@
         <v>67</v>
       </c>
       <c r="C22" s="55"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" ref="E22:E54" si="12">F21+1</f>
         <v>43842</v>
@@ -4476,7 +4906,9 @@
         <v>68</v>
       </c>
       <c r="C23" s="55"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="12"/>
         <v>43848</v>
@@ -4555,7 +4987,9 @@
         <v>64</v>
       </c>
       <c r="C24" s="55"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="20">
+        <v>1</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="12"/>
         <v>43854</v>
@@ -4630,8 +5064,8 @@
     </row>
     <row r="25" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="B25" s="80">
-        <v>13</v>
+      <c r="B25" s="80" t="s">
+        <v>103</v>
       </c>
       <c r="C25" s="55"/>
       <c r="D25" s="20"/>
@@ -4709,8 +5143,8 @@
     </row>
     <row r="26" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
-      <c r="B26" s="80">
-        <v>14</v>
+      <c r="B26" s="80" t="s">
+        <v>104</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="20"/>
@@ -4788,8 +5222,8 @@
     </row>
     <row r="27" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="80">
-        <v>15</v>
+      <c r="B27" s="80" t="s">
+        <v>105</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="20"/>
@@ -4864,8 +5298,8 @@
     </row>
     <row r="28" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
-      <c r="B28" s="80">
-        <v>16</v>
+      <c r="B28" s="80" t="s">
+        <v>106</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="20"/>
@@ -4940,8 +5374,8 @@
     </row>
     <row r="29" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
-      <c r="B29" s="80">
-        <v>17</v>
+      <c r="B29" s="80" t="s">
+        <v>107</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="20"/>
@@ -5016,8 +5450,8 @@
     </row>
     <row r="30" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
-      <c r="B30" s="80">
-        <v>18</v>
+      <c r="B30" s="80" t="s">
+        <v>108</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="20"/>
@@ -5092,8 +5526,8 @@
     </row>
     <row r="31" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
-      <c r="B31" s="80">
-        <v>19</v>
+      <c r="B31" s="80" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="20"/>
@@ -5168,8 +5602,8 @@
     </row>
     <row r="32" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
-      <c r="B32" s="80">
-        <v>20</v>
+      <c r="B32" s="80" t="s">
+        <v>110</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="20"/>
@@ -5244,8 +5678,8 @@
     </row>
     <row r="33" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="80">
-        <v>21</v>
+      <c r="B33" s="80" t="s">
+        <v>111</v>
       </c>
       <c r="C33" s="55"/>
       <c r="D33" s="20"/>
@@ -5320,8 +5754,8 @@
     </row>
     <row r="34" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
-      <c r="B34" s="80">
-        <v>22</v>
+      <c r="B34" s="80" t="s">
+        <v>112</v>
       </c>
       <c r="C34" s="55"/>
       <c r="D34" s="20"/>
@@ -5396,8 +5830,8 @@
     </row>
     <row r="35" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
-      <c r="B35" s="80">
-        <v>23</v>
+      <c r="B35" s="80" t="s">
+        <v>113</v>
       </c>
       <c r="C35" s="55"/>
       <c r="D35" s="20"/>
@@ -5472,8 +5906,8 @@
     </row>
     <row r="36" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
-      <c r="B36" s="80">
-        <v>24</v>
+      <c r="B36" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="20"/>
@@ -5548,8 +5982,8 @@
     </row>
     <row r="37" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
-      <c r="B37" s="80">
-        <v>25</v>
+      <c r="B37" s="80" t="s">
+        <v>115</v>
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="20"/>
@@ -5627,8 +6061,8 @@
     </row>
     <row r="38" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
-      <c r="B38" s="80">
-        <v>26</v>
+      <c r="B38" s="80" t="s">
+        <v>116</v>
       </c>
       <c r="C38" s="55"/>
       <c r="D38" s="20"/>
@@ -5637,7 +6071,7 @@
         <v>43938</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" ref="F38:F54" si="13">E38+G38</f>
+        <f t="shared" ref="F38:F86" si="13">E38+G38</f>
         <v>43943</v>
       </c>
       <c r="G38" s="16">
@@ -5706,8 +6140,8 @@
     </row>
     <row r="39" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
-      <c r="B39" s="80">
-        <v>27</v>
+      <c r="B39" s="80" t="s">
+        <v>117</v>
       </c>
       <c r="C39" s="55"/>
       <c r="D39" s="20"/>
@@ -5785,8 +6219,8 @@
     </row>
     <row r="40" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
-      <c r="B40" s="80">
-        <v>28</v>
+      <c r="B40" s="80" t="s">
+        <v>118</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="20"/>
@@ -5864,8 +6298,8 @@
     </row>
     <row r="41" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
-      <c r="B41" s="80">
-        <v>29</v>
+      <c r="B41" s="80" t="s">
+        <v>119</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="20"/>
@@ -5943,8 +6377,8 @@
     </row>
     <row r="42" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
-      <c r="B42" s="80">
-        <v>30</v>
+      <c r="B42" s="80" t="s">
+        <v>120</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="20"/>
@@ -6022,8 +6456,8 @@
     </row>
     <row r="43" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
-      <c r="B43" s="80">
-        <v>31</v>
+      <c r="B43" s="80" t="s">
+        <v>121</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="20"/>
@@ -6101,8 +6535,8 @@
     </row>
     <row r="44" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
-      <c r="B44" s="80">
-        <v>32</v>
+      <c r="B44" s="80" t="s">
+        <v>122</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="20"/>
@@ -6177,8 +6611,8 @@
     </row>
     <row r="45" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
-      <c r="B45" s="80">
-        <v>33</v>
+      <c r="B45" s="80" t="s">
+        <v>123</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="20"/>
@@ -6253,8 +6687,8 @@
     </row>
     <row r="46" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
-      <c r="B46" s="80">
-        <v>34</v>
+      <c r="B46" s="80" t="s">
+        <v>124</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="20"/>
@@ -6329,8 +6763,8 @@
     </row>
     <row r="47" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
-      <c r="B47" s="80">
-        <v>35</v>
+      <c r="B47" s="80" t="s">
+        <v>125</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="20"/>
@@ -6405,8 +6839,8 @@
     </row>
     <row r="48" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
-      <c r="B48" s="80">
-        <v>36</v>
+      <c r="B48" s="80" t="s">
+        <v>126</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="20"/>
@@ -6481,8 +6915,8 @@
     </row>
     <row r="49" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
-      <c r="B49" s="80">
-        <v>37</v>
+      <c r="B49" s="80" t="s">
+        <v>127</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="20"/>
@@ -6557,8 +6991,8 @@
     </row>
     <row r="50" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
-      <c r="B50" s="80">
-        <v>38</v>
+      <c r="B50" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="20"/>
@@ -6633,8 +7067,8 @@
     </row>
     <row r="51" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
-      <c r="B51" s="80">
-        <v>39</v>
+      <c r="B51" s="80" t="s">
+        <v>129</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="20"/>
@@ -6709,8 +7143,8 @@
     </row>
     <row r="52" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
-      <c r="B52" s="80">
-        <v>40</v>
+      <c r="B52" s="80" t="s">
+        <v>130</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="20"/>
@@ -6785,8 +7219,8 @@
     </row>
     <row r="53" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
-      <c r="B53" s="80">
-        <v>41</v>
+      <c r="B53" s="80" t="s">
+        <v>69</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="20"/>
@@ -6861,8 +7295,8 @@
     </row>
     <row r="54" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
-      <c r="B54" s="80">
-        <v>42</v>
+      <c r="B54" s="80" t="s">
+        <v>70</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="20"/>
@@ -6871,12 +7305,10 @@
         <v>44034</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="13"/>
-        <v>44039</v>
-      </c>
-      <c r="G54" s="16">
-        <v>5</v>
-      </c>
+        <f t="shared" ref="F54:F65" si="14">E54+G54</f>
+        <v>44034</v>
+      </c>
+      <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="51"/>
       <c r="J54" s="51"/>
@@ -6936,22 +7368,26 @@
       <c r="BL54" s="51"/>
     </row>
     <row r="55" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16" t="str">
+      <c r="A55" s="45"/>
+      <c r="B55" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="2">
+        <f t="shared" ref="E55:E82" si="15">F54+1</f>
+        <v>44035</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="14"/>
+        <v>44040</v>
+      </c>
+      <c r="G55" s="16">
+        <v>5</v>
+      </c>
+      <c r="H55" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I55" s="51"/>
       <c r="J55" s="51"/>
@@ -7012,20 +7448,21 @@
     </row>
     <row r="56" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45"/>
-      <c r="B56" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="4">
-        <v>43832</v>
-      </c>
-      <c r="F56" s="3">
-        <f>E56+G56</f>
-        <v>43835</v>
+      <c r="B56" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="2">
+        <f t="shared" si="15"/>
+        <v>44041</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="14"/>
+        <v>44046</v>
       </c>
       <c r="G56" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="51"/>
@@ -7087,18 +7524,18 @@
     </row>
     <row r="57" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
-      <c r="B57" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="3">
-        <f>F56+1</f>
-        <v>43836</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" ref="F57:F62" si="14">E57+G57</f>
-        <v>43841</v>
+      <c r="B57" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="2">
+        <f t="shared" si="15"/>
+        <v>44047</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="14"/>
+        <v>44052</v>
       </c>
       <c r="G57" s="16">
         <v>5</v>
@@ -7163,18 +7600,18 @@
     </row>
     <row r="58" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
-      <c r="B58" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="3">
-        <f t="shared" ref="E58:E60" si="15">F57+1</f>
-        <v>43842</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="B58" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="2">
+        <f t="shared" si="15"/>
+        <v>44053</v>
+      </c>
+      <c r="F58" s="2">
         <f t="shared" si="14"/>
-        <v>43847</v>
+        <v>44058</v>
       </c>
       <c r="G58" s="16">
         <v>5</v>
@@ -7239,18 +7676,18 @@
     </row>
     <row r="59" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
-      <c r="B59" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="3">
+      <c r="B59" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="2">
         <f t="shared" si="15"/>
-        <v>43848</v>
-      </c>
-      <c r="F59" s="3">
+        <v>44059</v>
+      </c>
+      <c r="F59" s="2">
         <f t="shared" si="14"/>
-        <v>43853</v>
+        <v>44064</v>
       </c>
       <c r="G59" s="16">
         <v>5</v>
@@ -7315,18 +7752,18 @@
     </row>
     <row r="60" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
-      <c r="B60" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="3">
+      <c r="B60" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="55"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="2">
         <f t="shared" si="15"/>
-        <v>43854</v>
-      </c>
-      <c r="F60" s="3">
+        <v>44065</v>
+      </c>
+      <c r="F60" s="2">
         <f t="shared" si="14"/>
-        <v>43859</v>
+        <v>44070</v>
       </c>
       <c r="G60" s="16">
         <v>5</v>
@@ -7390,21 +7827,24 @@
       <c r="BL60" s="51"/>
     </row>
     <row r="61" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A61" s="45"/>
+      <c r="B61" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="55"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="2">
+        <f t="shared" si="15"/>
+        <v>44071</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="14"/>
+        <v>44076</v>
+      </c>
+      <c r="G61" s="16">
+        <v>5</v>
+      </c>
+      <c r="H61" s="16"/>
       <c r="I61" s="51"/>
       <c r="J61" s="51"/>
       <c r="K61" s="51"/>
@@ -7464,27 +7904,23 @@
     </row>
     <row r="62" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
-      <c r="B62" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="E62" s="4">
-        <v>43832</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="B62" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="55"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="2">
+        <f t="shared" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="F62" s="2">
         <f t="shared" si="14"/>
-        <v>43852</v>
+        <v>44082</v>
       </c>
       <c r="G62" s="16">
-        <v>20</v>
-      </c>
-      <c r="H62" s="16">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H62" s="16"/>
       <c r="I62" s="51"/>
       <c r="J62" s="51"/>
       <c r="K62" s="51"/>
@@ -7544,12 +7980,22 @@
     </row>
     <row r="63" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="16"/>
+      <c r="B63" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="55"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="2">
+        <f t="shared" si="15"/>
+        <v>44083</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="14"/>
+        <v>44088</v>
+      </c>
+      <c r="G63" s="16">
+        <v>5</v>
+      </c>
       <c r="H63" s="16"/>
       <c r="I63" s="51"/>
       <c r="J63" s="51"/>
@@ -7609,21 +8055,24 @@
       <c r="BL63" s="51"/>
     </row>
     <row r="64" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A64" s="45"/>
+      <c r="B64" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="55"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="2">
+        <f t="shared" si="15"/>
+        <v>44089</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="14"/>
+        <v>44094</v>
+      </c>
+      <c r="G64" s="16">
+        <v>5</v>
+      </c>
+      <c r="H64" s="16"/>
       <c r="I64" s="51"/>
       <c r="J64" s="51"/>
       <c r="K64" s="51"/>
@@ -7683,16 +8132,23 @@
     </row>
     <row r="65" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="B65" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="55"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="2">
+        <f t="shared" si="15"/>
+        <v>44095</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="14"/>
+        <v>44100</v>
+      </c>
+      <c r="G65" s="16">
+        <v>5</v>
+      </c>
+      <c r="H65" s="16"/>
       <c r="I65" s="51"/>
       <c r="J65" s="51"/>
       <c r="K65" s="51"/>
@@ -7751,16 +8207,26 @@
       <c r="BL65" s="51"/>
     </row>
     <row r="66" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16" t="str">
+      <c r="A66" s="42"/>
+      <c r="B66" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="2">
+        <f t="shared" si="15"/>
+        <v>44101</v>
+      </c>
+      <c r="F66" s="2">
+        <f>E66+G66</f>
+        <v>44106</v>
+      </c>
+      <c r="G66" s="16">
+        <v>5</v>
+      </c>
+      <c r="H66" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I66" s="51"/>
       <c r="J66" s="51"/>
@@ -7821,15 +8287,25 @@
     </row>
     <row r="67" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16" t="str">
+      <c r="B67" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="55"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="2">
+        <f t="shared" si="15"/>
+        <v>44107</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F85" si="16">E67+G67</f>
+        <v>44112</v>
+      </c>
+      <c r="G67" s="16">
+        <v>5</v>
+      </c>
+      <c r="H67" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I67" s="51"/>
       <c r="J67" s="51"/>
@@ -7843,8 +8319,8 @@
       <c r="R67" s="51"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
-      <c r="U67" s="51"/>
-      <c r="V67" s="51"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="54"/>
       <c r="W67" s="51"/>
       <c r="X67" s="51"/>
       <c r="Y67" s="51"/>
@@ -7890,15 +8366,25 @@
     </row>
     <row r="68" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16" t="str">
+      <c r="B68" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="55"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="2">
+        <f t="shared" si="15"/>
+        <v>44113</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="16"/>
+        <v>44118</v>
+      </c>
+      <c r="G68" s="16">
+        <v>5</v>
+      </c>
+      <c r="H68" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I68" s="51"/>
       <c r="J68" s="51"/>
@@ -7959,15 +8445,25 @@
     </row>
     <row r="69" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16" t="str">
+      <c r="B69" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="55"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="2">
+        <f t="shared" si="15"/>
+        <v>44119</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="16"/>
+        <v>44124</v>
+      </c>
+      <c r="G69" s="16">
+        <v>5</v>
+      </c>
+      <c r="H69" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I69" s="51"/>
       <c r="J69" s="51"/>
@@ -7985,7 +8481,7 @@
       <c r="V69" s="51"/>
       <c r="W69" s="51"/>
       <c r="X69" s="51"/>
-      <c r="Y69" s="51"/>
+      <c r="Y69" s="54"/>
       <c r="Z69" s="51"/>
       <c r="AA69" s="51"/>
       <c r="AB69" s="51"/>
@@ -8028,15 +8524,25 @@
     </row>
     <row r="70" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16" t="str">
+      <c r="B70" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="2">
+        <f t="shared" si="15"/>
+        <v>44125</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="16"/>
+        <v>44130</v>
+      </c>
+      <c r="G70" s="16">
+        <v>5</v>
+      </c>
+      <c r="H70" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I70" s="51"/>
       <c r="J70" s="51"/>
@@ -8097,15 +8603,25 @@
     </row>
     <row r="71" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16" t="str">
+      <c r="B71" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="55"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="2">
+        <f t="shared" si="15"/>
+        <v>44131</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="16"/>
+        <v>44136</v>
+      </c>
+      <c r="G71" s="16">
+        <v>5</v>
+      </c>
+      <c r="H71" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I71" s="51"/>
       <c r="J71" s="51"/>
@@ -8166,15 +8682,25 @@
     </row>
     <row r="72" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16" t="str">
+      <c r="B72" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="55"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="2">
+        <f t="shared" si="15"/>
+        <v>44137</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="16"/>
+        <v>44142</v>
+      </c>
+      <c r="G72" s="16">
+        <v>5</v>
+      </c>
+      <c r="H72" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I72" s="51"/>
       <c r="J72" s="51"/>
@@ -8234,19 +8760,24 @@
       <c r="BL72" s="51"/>
     </row>
     <row r="73" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="59"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A73" s="45"/>
+      <c r="B73" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="55"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="2">
+        <f t="shared" si="15"/>
+        <v>44143</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="16"/>
+        <v>44148</v>
+      </c>
+      <c r="G73" s="16">
+        <v>5</v>
+      </c>
+      <c r="H73" s="16"/>
       <c r="I73" s="51"/>
       <c r="J73" s="51"/>
       <c r="K73" s="51"/>
@@ -8305,95 +8836,2447 @@
       <c r="BL73" s="51"/>
     </row>
     <row r="74" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="str">
+      <c r="A74" s="45"/>
+      <c r="B74" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="55"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="2">
+        <f t="shared" si="15"/>
+        <v>44149</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="16"/>
+        <v>44154</v>
+      </c>
+      <c r="G74" s="16">
+        <v>5</v>
+      </c>
+      <c r="H74" s="16"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="51"/>
+      <c r="U74" s="51"/>
+      <c r="V74" s="51"/>
+      <c r="W74" s="51"/>
+      <c r="X74" s="51"/>
+      <c r="Y74" s="51"/>
+      <c r="Z74" s="51"/>
+      <c r="AA74" s="51"/>
+      <c r="AB74" s="51"/>
+      <c r="AC74" s="51"/>
+      <c r="AD74" s="51"/>
+      <c r="AE74" s="51"/>
+      <c r="AF74" s="51"/>
+      <c r="AG74" s="51"/>
+      <c r="AH74" s="51"/>
+      <c r="AI74" s="51"/>
+      <c r="AJ74" s="51"/>
+      <c r="AK74" s="51"/>
+      <c r="AL74" s="51"/>
+      <c r="AM74" s="51"/>
+      <c r="AN74" s="51"/>
+      <c r="AO74" s="51"/>
+      <c r="AP74" s="51"/>
+      <c r="AQ74" s="51"/>
+      <c r="AR74" s="51"/>
+      <c r="AS74" s="51"/>
+      <c r="AT74" s="51"/>
+      <c r="AU74" s="51"/>
+      <c r="AV74" s="51"/>
+      <c r="AW74" s="51"/>
+      <c r="AX74" s="51"/>
+      <c r="AY74" s="51"/>
+      <c r="AZ74" s="51"/>
+      <c r="BA74" s="51"/>
+      <c r="BB74" s="51"/>
+      <c r="BC74" s="51"/>
+      <c r="BD74" s="51"/>
+      <c r="BE74" s="51"/>
+      <c r="BF74" s="51"/>
+      <c r="BG74" s="51"/>
+      <c r="BH74" s="51"/>
+      <c r="BI74" s="51"/>
+      <c r="BJ74" s="51"/>
+      <c r="BK74" s="51"/>
+      <c r="BL74" s="51"/>
+    </row>
+    <row r="75" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="45"/>
+      <c r="B75" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="55"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="2">
+        <f t="shared" si="15"/>
+        <v>44155</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="16"/>
+        <v>44160</v>
+      </c>
+      <c r="G75" s="16">
+        <v>5</v>
+      </c>
+      <c r="H75" s="16"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+      <c r="W75" s="51"/>
+      <c r="X75" s="51"/>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="51"/>
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="51"/>
+      <c r="AC75" s="51"/>
+      <c r="AD75" s="51"/>
+      <c r="AE75" s="51"/>
+      <c r="AF75" s="51"/>
+      <c r="AG75" s="51"/>
+      <c r="AH75" s="51"/>
+      <c r="AI75" s="51"/>
+      <c r="AJ75" s="51"/>
+      <c r="AK75" s="51"/>
+      <c r="AL75" s="51"/>
+      <c r="AM75" s="51"/>
+      <c r="AN75" s="51"/>
+      <c r="AO75" s="51"/>
+      <c r="AP75" s="51"/>
+      <c r="AQ75" s="51"/>
+      <c r="AR75" s="51"/>
+      <c r="AS75" s="51"/>
+      <c r="AT75" s="51"/>
+      <c r="AU75" s="51"/>
+      <c r="AV75" s="51"/>
+      <c r="AW75" s="51"/>
+      <c r="AX75" s="51"/>
+      <c r="AY75" s="51"/>
+      <c r="AZ75" s="51"/>
+      <c r="BA75" s="51"/>
+      <c r="BB75" s="51"/>
+      <c r="BC75" s="51"/>
+      <c r="BD75" s="51"/>
+      <c r="BE75" s="51"/>
+      <c r="BF75" s="51"/>
+      <c r="BG75" s="51"/>
+      <c r="BH75" s="51"/>
+      <c r="BI75" s="51"/>
+      <c r="BJ75" s="51"/>
+      <c r="BK75" s="51"/>
+      <c r="BL75" s="51"/>
+    </row>
+    <row r="76" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45"/>
+      <c r="B76" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="55"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="2">
+        <f t="shared" si="15"/>
+        <v>44161</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="16"/>
+        <v>44166</v>
+      </c>
+      <c r="G76" s="16">
+        <v>5</v>
+      </c>
+      <c r="H76" s="16"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
+      <c r="T76" s="51"/>
+      <c r="U76" s="51"/>
+      <c r="V76" s="51"/>
+      <c r="W76" s="51"/>
+      <c r="X76" s="51"/>
+      <c r="Y76" s="51"/>
+      <c r="Z76" s="51"/>
+      <c r="AA76" s="51"/>
+      <c r="AB76" s="51"/>
+      <c r="AC76" s="51"/>
+      <c r="AD76" s="51"/>
+      <c r="AE76" s="51"/>
+      <c r="AF76" s="51"/>
+      <c r="AG76" s="51"/>
+      <c r="AH76" s="51"/>
+      <c r="AI76" s="51"/>
+      <c r="AJ76" s="51"/>
+      <c r="AK76" s="51"/>
+      <c r="AL76" s="51"/>
+      <c r="AM76" s="51"/>
+      <c r="AN76" s="51"/>
+      <c r="AO76" s="51"/>
+      <c r="AP76" s="51"/>
+      <c r="AQ76" s="51"/>
+      <c r="AR76" s="51"/>
+      <c r="AS76" s="51"/>
+      <c r="AT76" s="51"/>
+      <c r="AU76" s="51"/>
+      <c r="AV76" s="51"/>
+      <c r="AW76" s="51"/>
+      <c r="AX76" s="51"/>
+      <c r="AY76" s="51"/>
+      <c r="AZ76" s="51"/>
+      <c r="BA76" s="51"/>
+      <c r="BB76" s="51"/>
+      <c r="BC76" s="51"/>
+      <c r="BD76" s="51"/>
+      <c r="BE76" s="51"/>
+      <c r="BF76" s="51"/>
+      <c r="BG76" s="51"/>
+      <c r="BH76" s="51"/>
+      <c r="BI76" s="51"/>
+      <c r="BJ76" s="51"/>
+      <c r="BK76" s="51"/>
+      <c r="BL76" s="51"/>
+    </row>
+    <row r="77" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="45"/>
+      <c r="B77" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="55"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="2">
+        <f t="shared" si="15"/>
+        <v>44167</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="16"/>
+        <v>44172</v>
+      </c>
+      <c r="G77" s="16">
+        <v>5</v>
+      </c>
+      <c r="H77" s="16"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="51"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="51"/>
+      <c r="W77" s="51"/>
+      <c r="X77" s="51"/>
+      <c r="Y77" s="51"/>
+      <c r="Z77" s="51"/>
+      <c r="AA77" s="51"/>
+      <c r="AB77" s="51"/>
+      <c r="AC77" s="51"/>
+      <c r="AD77" s="51"/>
+      <c r="AE77" s="51"/>
+      <c r="AF77" s="51"/>
+      <c r="AG77" s="51"/>
+      <c r="AH77" s="51"/>
+      <c r="AI77" s="51"/>
+      <c r="AJ77" s="51"/>
+      <c r="AK77" s="51"/>
+      <c r="AL77" s="51"/>
+      <c r="AM77" s="51"/>
+      <c r="AN77" s="51"/>
+      <c r="AO77" s="51"/>
+      <c r="AP77" s="51"/>
+      <c r="AQ77" s="51"/>
+      <c r="AR77" s="51"/>
+      <c r="AS77" s="51"/>
+      <c r="AT77" s="51"/>
+      <c r="AU77" s="51"/>
+      <c r="AV77" s="51"/>
+      <c r="AW77" s="51"/>
+      <c r="AX77" s="51"/>
+      <c r="AY77" s="51"/>
+      <c r="AZ77" s="51"/>
+      <c r="BA77" s="51"/>
+      <c r="BB77" s="51"/>
+      <c r="BC77" s="51"/>
+      <c r="BD77" s="51"/>
+      <c r="BE77" s="51"/>
+      <c r="BF77" s="51"/>
+      <c r="BG77" s="51"/>
+      <c r="BH77" s="51"/>
+      <c r="BI77" s="51"/>
+      <c r="BJ77" s="51"/>
+      <c r="BK77" s="51"/>
+      <c r="BL77" s="51"/>
+    </row>
+    <row r="78" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="45"/>
+      <c r="B78" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="55"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="2">
+        <f t="shared" si="15"/>
+        <v>44173</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="16"/>
+        <v>44178</v>
+      </c>
+      <c r="G78" s="16">
+        <v>5</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="51"/>
+      <c r="T78" s="51"/>
+      <c r="U78" s="51"/>
+      <c r="V78" s="51"/>
+      <c r="W78" s="51"/>
+      <c r="X78" s="51"/>
+      <c r="Y78" s="51"/>
+      <c r="Z78" s="51"/>
+      <c r="AA78" s="51"/>
+      <c r="AB78" s="51"/>
+      <c r="AC78" s="51"/>
+      <c r="AD78" s="51"/>
+      <c r="AE78" s="51"/>
+      <c r="AF78" s="51"/>
+      <c r="AG78" s="51"/>
+      <c r="AH78" s="51"/>
+      <c r="AI78" s="51"/>
+      <c r="AJ78" s="51"/>
+      <c r="AK78" s="51"/>
+      <c r="AL78" s="51"/>
+      <c r="AM78" s="51"/>
+      <c r="AN78" s="51"/>
+      <c r="AO78" s="51"/>
+      <c r="AP78" s="51"/>
+      <c r="AQ78" s="51"/>
+      <c r="AR78" s="51"/>
+      <c r="AS78" s="51"/>
+      <c r="AT78" s="51"/>
+      <c r="AU78" s="51"/>
+      <c r="AV78" s="51"/>
+      <c r="AW78" s="51"/>
+      <c r="AX78" s="51"/>
+      <c r="AY78" s="51"/>
+      <c r="AZ78" s="51"/>
+      <c r="BA78" s="51"/>
+      <c r="BB78" s="51"/>
+      <c r="BC78" s="51"/>
+      <c r="BD78" s="51"/>
+      <c r="BE78" s="51"/>
+      <c r="BF78" s="51"/>
+      <c r="BG78" s="51"/>
+      <c r="BH78" s="51"/>
+      <c r="BI78" s="51"/>
+      <c r="BJ78" s="51"/>
+      <c r="BK78" s="51"/>
+      <c r="BL78" s="51"/>
+    </row>
+    <row r="79" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="45"/>
+      <c r="B79" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="55"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="2">
+        <f t="shared" si="15"/>
+        <v>44179</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="16"/>
+        <v>44184</v>
+      </c>
+      <c r="G79" s="16">
+        <v>5</v>
+      </c>
+      <c r="H79" s="16"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="51"/>
+      <c r="T79" s="51"/>
+      <c r="U79" s="51"/>
+      <c r="V79" s="51"/>
+      <c r="W79" s="51"/>
+      <c r="X79" s="51"/>
+      <c r="Y79" s="51"/>
+      <c r="Z79" s="51"/>
+      <c r="AA79" s="51"/>
+      <c r="AB79" s="51"/>
+      <c r="AC79" s="51"/>
+      <c r="AD79" s="51"/>
+      <c r="AE79" s="51"/>
+      <c r="AF79" s="51"/>
+      <c r="AG79" s="51"/>
+      <c r="AH79" s="51"/>
+      <c r="AI79" s="51"/>
+      <c r="AJ79" s="51"/>
+      <c r="AK79" s="51"/>
+      <c r="AL79" s="51"/>
+      <c r="AM79" s="51"/>
+      <c r="AN79" s="51"/>
+      <c r="AO79" s="51"/>
+      <c r="AP79" s="51"/>
+      <c r="AQ79" s="51"/>
+      <c r="AR79" s="51"/>
+      <c r="AS79" s="51"/>
+      <c r="AT79" s="51"/>
+      <c r="AU79" s="51"/>
+      <c r="AV79" s="51"/>
+      <c r="AW79" s="51"/>
+      <c r="AX79" s="51"/>
+      <c r="AY79" s="51"/>
+      <c r="AZ79" s="51"/>
+      <c r="BA79" s="51"/>
+      <c r="BB79" s="51"/>
+      <c r="BC79" s="51"/>
+      <c r="BD79" s="51"/>
+      <c r="BE79" s="51"/>
+      <c r="BF79" s="51"/>
+      <c r="BG79" s="51"/>
+      <c r="BH79" s="51"/>
+      <c r="BI79" s="51"/>
+      <c r="BJ79" s="51"/>
+      <c r="BK79" s="51"/>
+      <c r="BL79" s="51"/>
+    </row>
+    <row r="80" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="45"/>
+      <c r="B80" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="55"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="2">
+        <f t="shared" si="15"/>
+        <v>44185</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="16"/>
+        <v>44190</v>
+      </c>
+      <c r="G80" s="16">
+        <v>5</v>
+      </c>
+      <c r="H80" s="16"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
+      <c r="T80" s="51"/>
+      <c r="U80" s="51"/>
+      <c r="V80" s="51"/>
+      <c r="W80" s="51"/>
+      <c r="X80" s="51"/>
+      <c r="Y80" s="51"/>
+      <c r="Z80" s="51"/>
+      <c r="AA80" s="51"/>
+      <c r="AB80" s="51"/>
+      <c r="AC80" s="51"/>
+      <c r="AD80" s="51"/>
+      <c r="AE80" s="51"/>
+      <c r="AF80" s="51"/>
+      <c r="AG80" s="51"/>
+      <c r="AH80" s="51"/>
+      <c r="AI80" s="51"/>
+      <c r="AJ80" s="51"/>
+      <c r="AK80" s="51"/>
+      <c r="AL80" s="51"/>
+      <c r="AM80" s="51"/>
+      <c r="AN80" s="51"/>
+      <c r="AO80" s="51"/>
+      <c r="AP80" s="51"/>
+      <c r="AQ80" s="51"/>
+      <c r="AR80" s="51"/>
+      <c r="AS80" s="51"/>
+      <c r="AT80" s="51"/>
+      <c r="AU80" s="51"/>
+      <c r="AV80" s="51"/>
+      <c r="AW80" s="51"/>
+      <c r="AX80" s="51"/>
+      <c r="AY80" s="51"/>
+      <c r="AZ80" s="51"/>
+      <c r="BA80" s="51"/>
+      <c r="BB80" s="51"/>
+      <c r="BC80" s="51"/>
+      <c r="BD80" s="51"/>
+      <c r="BE80" s="51"/>
+      <c r="BF80" s="51"/>
+      <c r="BG80" s="51"/>
+      <c r="BH80" s="51"/>
+      <c r="BI80" s="51"/>
+      <c r="BJ80" s="51"/>
+      <c r="BK80" s="51"/>
+      <c r="BL80" s="51"/>
+    </row>
+    <row r="81" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="45"/>
+      <c r="B81" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="55"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="2">
+        <f t="shared" si="15"/>
+        <v>44191</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="16"/>
+        <v>44196</v>
+      </c>
+      <c r="G81" s="16">
+        <v>5</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
+      <c r="T81" s="51"/>
+      <c r="U81" s="51"/>
+      <c r="V81" s="51"/>
+      <c r="W81" s="51"/>
+      <c r="X81" s="51"/>
+      <c r="Y81" s="51"/>
+      <c r="Z81" s="51"/>
+      <c r="AA81" s="51"/>
+      <c r="AB81" s="51"/>
+      <c r="AC81" s="51"/>
+      <c r="AD81" s="51"/>
+      <c r="AE81" s="51"/>
+      <c r="AF81" s="51"/>
+      <c r="AG81" s="51"/>
+      <c r="AH81" s="51"/>
+      <c r="AI81" s="51"/>
+      <c r="AJ81" s="51"/>
+      <c r="AK81" s="51"/>
+      <c r="AL81" s="51"/>
+      <c r="AM81" s="51"/>
+      <c r="AN81" s="51"/>
+      <c r="AO81" s="51"/>
+      <c r="AP81" s="51"/>
+      <c r="AQ81" s="51"/>
+      <c r="AR81" s="51"/>
+      <c r="AS81" s="51"/>
+      <c r="AT81" s="51"/>
+      <c r="AU81" s="51"/>
+      <c r="AV81" s="51"/>
+      <c r="AW81" s="51"/>
+      <c r="AX81" s="51"/>
+      <c r="AY81" s="51"/>
+      <c r="AZ81" s="51"/>
+      <c r="BA81" s="51"/>
+      <c r="BB81" s="51"/>
+      <c r="BC81" s="51"/>
+      <c r="BD81" s="51"/>
+      <c r="BE81" s="51"/>
+      <c r="BF81" s="51"/>
+      <c r="BG81" s="51"/>
+      <c r="BH81" s="51"/>
+      <c r="BI81" s="51"/>
+      <c r="BJ81" s="51"/>
+      <c r="BK81" s="51"/>
+      <c r="BL81" s="51"/>
+    </row>
+    <row r="82" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="45"/>
+      <c r="B82" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="55"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="2">
+        <f t="shared" si="15"/>
+        <v>44197</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="16"/>
+        <v>44202</v>
+      </c>
+      <c r="G82" s="16">
+        <v>5</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
+      <c r="T82" s="51"/>
+      <c r="U82" s="51"/>
+      <c r="V82" s="51"/>
+      <c r="W82" s="51"/>
+      <c r="X82" s="51"/>
+      <c r="Y82" s="51"/>
+      <c r="Z82" s="51"/>
+      <c r="AA82" s="51"/>
+      <c r="AB82" s="51"/>
+      <c r="AC82" s="51"/>
+      <c r="AD82" s="51"/>
+      <c r="AE82" s="51"/>
+      <c r="AF82" s="51"/>
+      <c r="AG82" s="51"/>
+      <c r="AH82" s="51"/>
+      <c r="AI82" s="51"/>
+      <c r="AJ82" s="51"/>
+      <c r="AK82" s="51"/>
+      <c r="AL82" s="51"/>
+      <c r="AM82" s="51"/>
+      <c r="AN82" s="51"/>
+      <c r="AO82" s="51"/>
+      <c r="AP82" s="51"/>
+      <c r="AQ82" s="51"/>
+      <c r="AR82" s="51"/>
+      <c r="AS82" s="51"/>
+      <c r="AT82" s="51"/>
+      <c r="AU82" s="51"/>
+      <c r="AV82" s="51"/>
+      <c r="AW82" s="51"/>
+      <c r="AX82" s="51"/>
+      <c r="AY82" s="51"/>
+      <c r="AZ82" s="51"/>
+      <c r="BA82" s="51"/>
+      <c r="BB82" s="51"/>
+      <c r="BC82" s="51"/>
+      <c r="BD82" s="51"/>
+      <c r="BE82" s="51"/>
+      <c r="BF82" s="51"/>
+      <c r="BG82" s="51"/>
+      <c r="BH82" s="51"/>
+      <c r="BI82" s="51"/>
+      <c r="BJ82" s="51"/>
+      <c r="BK82" s="51"/>
+      <c r="BL82" s="51"/>
+    </row>
+    <row r="83" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="45"/>
+      <c r="B83" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="55"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="2">
+        <f>F81+1</f>
+        <v>44197</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="16"/>
+        <v>44197</v>
+      </c>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="51"/>
+      <c r="V83" s="51"/>
+      <c r="W83" s="51"/>
+      <c r="X83" s="51"/>
+      <c r="Y83" s="51"/>
+      <c r="Z83" s="51"/>
+      <c r="AA83" s="51"/>
+      <c r="AB83" s="51"/>
+      <c r="AC83" s="51"/>
+      <c r="AD83" s="51"/>
+      <c r="AE83" s="51"/>
+      <c r="AF83" s="51"/>
+      <c r="AG83" s="51"/>
+      <c r="AH83" s="51"/>
+      <c r="AI83" s="51"/>
+      <c r="AJ83" s="51"/>
+      <c r="AK83" s="51"/>
+      <c r="AL83" s="51"/>
+      <c r="AM83" s="51"/>
+      <c r="AN83" s="51"/>
+      <c r="AO83" s="51"/>
+      <c r="AP83" s="51"/>
+      <c r="AQ83" s="51"/>
+      <c r="AR83" s="51"/>
+      <c r="AS83" s="51"/>
+      <c r="AT83" s="51"/>
+      <c r="AU83" s="51"/>
+      <c r="AV83" s="51"/>
+      <c r="AW83" s="51"/>
+      <c r="AX83" s="51"/>
+      <c r="AY83" s="51"/>
+      <c r="AZ83" s="51"/>
+      <c r="BA83" s="51"/>
+      <c r="BB83" s="51"/>
+      <c r="BC83" s="51"/>
+      <c r="BD83" s="51"/>
+      <c r="BE83" s="51"/>
+      <c r="BF83" s="51"/>
+      <c r="BG83" s="51"/>
+      <c r="BH83" s="51"/>
+      <c r="BI83" s="51"/>
+      <c r="BJ83" s="51"/>
+      <c r="BK83" s="51"/>
+      <c r="BL83" s="51"/>
+    </row>
+    <row r="84" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="45"/>
+      <c r="B84" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="2">
+        <f>F52+1</f>
+        <v>44028</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="16"/>
+        <v>44033</v>
+      </c>
+      <c r="G84" s="16">
+        <v>5</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
+      <c r="T84" s="51"/>
+      <c r="U84" s="51"/>
+      <c r="V84" s="51"/>
+      <c r="W84" s="51"/>
+      <c r="X84" s="51"/>
+      <c r="Y84" s="51"/>
+      <c r="Z84" s="51"/>
+      <c r="AA84" s="51"/>
+      <c r="AB84" s="51"/>
+      <c r="AC84" s="51"/>
+      <c r="AD84" s="51"/>
+      <c r="AE84" s="51"/>
+      <c r="AF84" s="51"/>
+      <c r="AG84" s="51"/>
+      <c r="AH84" s="51"/>
+      <c r="AI84" s="51"/>
+      <c r="AJ84" s="51"/>
+      <c r="AK84" s="51"/>
+      <c r="AL84" s="51"/>
+      <c r="AM84" s="51"/>
+      <c r="AN84" s="51"/>
+      <c r="AO84" s="51"/>
+      <c r="AP84" s="51"/>
+      <c r="AQ84" s="51"/>
+      <c r="AR84" s="51"/>
+      <c r="AS84" s="51"/>
+      <c r="AT84" s="51"/>
+      <c r="AU84" s="51"/>
+      <c r="AV84" s="51"/>
+      <c r="AW84" s="51"/>
+      <c r="AX84" s="51"/>
+      <c r="AY84" s="51"/>
+      <c r="AZ84" s="51"/>
+      <c r="BA84" s="51"/>
+      <c r="BB84" s="51"/>
+      <c r="BC84" s="51"/>
+      <c r="BD84" s="51"/>
+      <c r="BE84" s="51"/>
+      <c r="BF84" s="51"/>
+      <c r="BG84" s="51"/>
+      <c r="BH84" s="51"/>
+      <c r="BI84" s="51"/>
+      <c r="BJ84" s="51"/>
+      <c r="BK84" s="51"/>
+      <c r="BL84" s="51"/>
+    </row>
+    <row r="85" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="45"/>
+      <c r="B85" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="55"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="2">
+        <f>F52+1</f>
+        <v>44028</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="16"/>
+        <v>44033</v>
+      </c>
+      <c r="G85" s="16">
+        <v>5</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
+      <c r="T85" s="51"/>
+      <c r="U85" s="51"/>
+      <c r="V85" s="51"/>
+      <c r="W85" s="51"/>
+      <c r="X85" s="51"/>
+      <c r="Y85" s="51"/>
+      <c r="Z85" s="51"/>
+      <c r="AA85" s="51"/>
+      <c r="AB85" s="51"/>
+      <c r="AC85" s="51"/>
+      <c r="AD85" s="51"/>
+      <c r="AE85" s="51"/>
+      <c r="AF85" s="51"/>
+      <c r="AG85" s="51"/>
+      <c r="AH85" s="51"/>
+      <c r="AI85" s="51"/>
+      <c r="AJ85" s="51"/>
+      <c r="AK85" s="51"/>
+      <c r="AL85" s="51"/>
+      <c r="AM85" s="51"/>
+      <c r="AN85" s="51"/>
+      <c r="AO85" s="51"/>
+      <c r="AP85" s="51"/>
+      <c r="AQ85" s="51"/>
+      <c r="AR85" s="51"/>
+      <c r="AS85" s="51"/>
+      <c r="AT85" s="51"/>
+      <c r="AU85" s="51"/>
+      <c r="AV85" s="51"/>
+      <c r="AW85" s="51"/>
+      <c r="AX85" s="51"/>
+      <c r="AY85" s="51"/>
+      <c r="AZ85" s="51"/>
+      <c r="BA85" s="51"/>
+      <c r="BB85" s="51"/>
+      <c r="BC85" s="51"/>
+      <c r="BD85" s="51"/>
+      <c r="BE85" s="51"/>
+      <c r="BF85" s="51"/>
+      <c r="BG85" s="51"/>
+      <c r="BH85" s="51"/>
+      <c r="BI85" s="51"/>
+      <c r="BJ85" s="51"/>
+      <c r="BK85" s="51"/>
+      <c r="BL85" s="51"/>
+    </row>
+    <row r="86" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="45"/>
+      <c r="B86" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="55"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="2">
+        <f>F53+1</f>
+        <v>44034</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="13"/>
+        <v>44039</v>
+      </c>
+      <c r="G86" s="16">
+        <v>5</v>
+      </c>
+      <c r="H86" s="16"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="51"/>
+      <c r="V86" s="51"/>
+      <c r="W86" s="51"/>
+      <c r="X86" s="51"/>
+      <c r="Y86" s="51"/>
+      <c r="Z86" s="51"/>
+      <c r="AA86" s="51"/>
+      <c r="AB86" s="51"/>
+      <c r="AC86" s="51"/>
+      <c r="AD86" s="51"/>
+      <c r="AE86" s="51"/>
+      <c r="AF86" s="51"/>
+      <c r="AG86" s="51"/>
+      <c r="AH86" s="51"/>
+      <c r="AI86" s="51"/>
+      <c r="AJ86" s="51"/>
+      <c r="AK86" s="51"/>
+      <c r="AL86" s="51"/>
+      <c r="AM86" s="51"/>
+      <c r="AN86" s="51"/>
+      <c r="AO86" s="51"/>
+      <c r="AP86" s="51"/>
+      <c r="AQ86" s="51"/>
+      <c r="AR86" s="51"/>
+      <c r="AS86" s="51"/>
+      <c r="AT86" s="51"/>
+      <c r="AU86" s="51"/>
+      <c r="AV86" s="51"/>
+      <c r="AW86" s="51"/>
+      <c r="AX86" s="51"/>
+      <c r="AY86" s="51"/>
+      <c r="AZ86" s="51"/>
+      <c r="BA86" s="51"/>
+      <c r="BB86" s="51"/>
+      <c r="BC86" s="51"/>
+      <c r="BD86" s="51"/>
+      <c r="BE86" s="51"/>
+      <c r="BF86" s="51"/>
+      <c r="BG86" s="51"/>
+      <c r="BH86" s="51"/>
+      <c r="BI86" s="51"/>
+      <c r="BJ86" s="51"/>
+      <c r="BK86" s="51"/>
+      <c r="BL86" s="51"/>
+    </row>
+    <row r="87" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="22"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="62"/>
-      <c r="P74" s="62"/>
-      <c r="Q74" s="62"/>
-      <c r="R74" s="62"/>
-      <c r="S74" s="62"/>
-      <c r="T74" s="62"/>
-      <c r="U74" s="62"/>
-      <c r="V74" s="62"/>
-      <c r="W74" s="62"/>
-      <c r="X74" s="62"/>
-      <c r="Y74" s="62"/>
-      <c r="Z74" s="62"/>
-      <c r="AA74" s="62"/>
-      <c r="AB74" s="62"/>
-      <c r="AC74" s="62"/>
-      <c r="AD74" s="62"/>
-      <c r="AE74" s="62"/>
-      <c r="AF74" s="62"/>
-      <c r="AG74" s="62"/>
-      <c r="AH74" s="62"/>
-      <c r="AI74" s="62"/>
-      <c r="AJ74" s="62"/>
-      <c r="AK74" s="62"/>
-      <c r="AL74" s="62"/>
-      <c r="AM74" s="62"/>
-      <c r="AN74" s="62"/>
-      <c r="AO74" s="62"/>
-      <c r="AP74" s="62"/>
-      <c r="AQ74" s="62"/>
-      <c r="AR74" s="62"/>
-      <c r="AS74" s="62"/>
-      <c r="AT74" s="62"/>
-      <c r="AU74" s="62"/>
-      <c r="AV74" s="62"/>
-      <c r="AW74" s="62"/>
-      <c r="AX74" s="62"/>
-      <c r="AY74" s="62"/>
-      <c r="AZ74" s="62"/>
-      <c r="BA74" s="62"/>
-      <c r="BB74" s="62"/>
-      <c r="BC74" s="62"/>
-      <c r="BD74" s="62"/>
-      <c r="BE74" s="62"/>
-      <c r="BF74" s="62"/>
-      <c r="BG74" s="62"/>
-      <c r="BH74" s="62"/>
-      <c r="BI74" s="62"/>
-      <c r="BJ74" s="62"/>
-      <c r="BK74" s="62"/>
-      <c r="BL74" s="62"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51"/>
+      <c r="V87" s="51"/>
+      <c r="W87" s="51"/>
+      <c r="X87" s="51"/>
+      <c r="Y87" s="51"/>
+      <c r="Z87" s="51"/>
+      <c r="AA87" s="51"/>
+      <c r="AB87" s="51"/>
+      <c r="AC87" s="51"/>
+      <c r="AD87" s="51"/>
+      <c r="AE87" s="51"/>
+      <c r="AF87" s="51"/>
+      <c r="AG87" s="51"/>
+      <c r="AH87" s="51"/>
+      <c r="AI87" s="51"/>
+      <c r="AJ87" s="51"/>
+      <c r="AK87" s="51"/>
+      <c r="AL87" s="51"/>
+      <c r="AM87" s="51"/>
+      <c r="AN87" s="51"/>
+      <c r="AO87" s="51"/>
+      <c r="AP87" s="51"/>
+      <c r="AQ87" s="51"/>
+      <c r="AR87" s="51"/>
+      <c r="AS87" s="51"/>
+      <c r="AT87" s="51"/>
+      <c r="AU87" s="51"/>
+      <c r="AV87" s="51"/>
+      <c r="AW87" s="51"/>
+      <c r="AX87" s="51"/>
+      <c r="AY87" s="51"/>
+      <c r="AZ87" s="51"/>
+      <c r="BA87" s="51"/>
+      <c r="BB87" s="51"/>
+      <c r="BC87" s="51"/>
+      <c r="BD87" s="51"/>
+      <c r="BE87" s="51"/>
+      <c r="BF87" s="51"/>
+      <c r="BG87" s="51"/>
+      <c r="BH87" s="51"/>
+      <c r="BI87" s="51"/>
+      <c r="BJ87" s="51"/>
+      <c r="BK87" s="51"/>
+      <c r="BL87" s="51"/>
     </row>
-    <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G75" s="63"/>
+    <row r="88" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="45"/>
+      <c r="B88" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="56"/>
+      <c r="D88" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E88" s="4">
+        <v>43832</v>
+      </c>
+      <c r="F88" s="3">
+        <f>E88+G88</f>
+        <v>43835</v>
+      </c>
+      <c r="G88" s="16">
+        <v>3</v>
+      </c>
+      <c r="H88" s="16"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="51"/>
+      <c r="T88" s="51"/>
+      <c r="U88" s="51"/>
+      <c r="V88" s="51"/>
+      <c r="W88" s="51"/>
+      <c r="X88" s="51"/>
+      <c r="Y88" s="51"/>
+      <c r="Z88" s="51"/>
+      <c r="AA88" s="51"/>
+      <c r="AB88" s="51"/>
+      <c r="AC88" s="51"/>
+      <c r="AD88" s="51"/>
+      <c r="AE88" s="51"/>
+      <c r="AF88" s="51"/>
+      <c r="AG88" s="51"/>
+      <c r="AH88" s="51"/>
+      <c r="AI88" s="51"/>
+      <c r="AJ88" s="51"/>
+      <c r="AK88" s="51"/>
+      <c r="AL88" s="51"/>
+      <c r="AM88" s="51"/>
+      <c r="AN88" s="51"/>
+      <c r="AO88" s="51"/>
+      <c r="AP88" s="51"/>
+      <c r="AQ88" s="51"/>
+      <c r="AR88" s="51"/>
+      <c r="AS88" s="51"/>
+      <c r="AT88" s="51"/>
+      <c r="AU88" s="51"/>
+      <c r="AV88" s="51"/>
+      <c r="AW88" s="51"/>
+      <c r="AX88" s="51"/>
+      <c r="AY88" s="51"/>
+      <c r="AZ88" s="51"/>
+      <c r="BA88" s="51"/>
+      <c r="BB88" s="51"/>
+      <c r="BC88" s="51"/>
+      <c r="BD88" s="51"/>
+      <c r="BE88" s="51"/>
+      <c r="BF88" s="51"/>
+      <c r="BG88" s="51"/>
+      <c r="BH88" s="51"/>
+      <c r="BI88" s="51"/>
+      <c r="BJ88" s="51"/>
+      <c r="BK88" s="51"/>
+      <c r="BL88" s="51"/>
     </row>
-    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="F76" s="34"/>
+    <row r="89" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="45"/>
+      <c r="B89" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="56"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="3">
+        <f>F88+1</f>
+        <v>43836</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" ref="F89:F94" si="17">E89+G89</f>
+        <v>43841</v>
+      </c>
+      <c r="G89" s="16">
+        <v>5</v>
+      </c>
+      <c r="H89" s="16"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
+      <c r="T89" s="51"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="51"/>
+      <c r="W89" s="51"/>
+      <c r="X89" s="51"/>
+      <c r="Y89" s="51"/>
+      <c r="Z89" s="51"/>
+      <c r="AA89" s="51"/>
+      <c r="AB89" s="51"/>
+      <c r="AC89" s="51"/>
+      <c r="AD89" s="51"/>
+      <c r="AE89" s="51"/>
+      <c r="AF89" s="51"/>
+      <c r="AG89" s="51"/>
+      <c r="AH89" s="51"/>
+      <c r="AI89" s="51"/>
+      <c r="AJ89" s="51"/>
+      <c r="AK89" s="51"/>
+      <c r="AL89" s="51"/>
+      <c r="AM89" s="51"/>
+      <c r="AN89" s="51"/>
+      <c r="AO89" s="51"/>
+      <c r="AP89" s="51"/>
+      <c r="AQ89" s="51"/>
+      <c r="AR89" s="51"/>
+      <c r="AS89" s="51"/>
+      <c r="AT89" s="51"/>
+      <c r="AU89" s="51"/>
+      <c r="AV89" s="51"/>
+      <c r="AW89" s="51"/>
+      <c r="AX89" s="51"/>
+      <c r="AY89" s="51"/>
+      <c r="AZ89" s="51"/>
+      <c r="BA89" s="51"/>
+      <c r="BB89" s="51"/>
+      <c r="BC89" s="51"/>
+      <c r="BD89" s="51"/>
+      <c r="BE89" s="51"/>
+      <c r="BF89" s="51"/>
+      <c r="BG89" s="51"/>
+      <c r="BH89" s="51"/>
+      <c r="BI89" s="51"/>
+      <c r="BJ89" s="51"/>
+      <c r="BK89" s="51"/>
+      <c r="BL89" s="51"/>
     </row>
-    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="35"/>
+    <row r="90" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="45"/>
+      <c r="B90" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="56"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="3">
+        <f t="shared" ref="E90:E92" si="18">F89+1</f>
+        <v>43842</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="17"/>
+        <v>43847</v>
+      </c>
+      <c r="G90" s="16">
+        <v>5</v>
+      </c>
+      <c r="H90" s="16"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="51"/>
+      <c r="T90" s="51"/>
+      <c r="U90" s="51"/>
+      <c r="V90" s="51"/>
+      <c r="W90" s="51"/>
+      <c r="X90" s="51"/>
+      <c r="Y90" s="51"/>
+      <c r="Z90" s="51"/>
+      <c r="AA90" s="51"/>
+      <c r="AB90" s="51"/>
+      <c r="AC90" s="51"/>
+      <c r="AD90" s="51"/>
+      <c r="AE90" s="51"/>
+      <c r="AF90" s="51"/>
+      <c r="AG90" s="51"/>
+      <c r="AH90" s="51"/>
+      <c r="AI90" s="51"/>
+      <c r="AJ90" s="51"/>
+      <c r="AK90" s="51"/>
+      <c r="AL90" s="51"/>
+      <c r="AM90" s="51"/>
+      <c r="AN90" s="51"/>
+      <c r="AO90" s="51"/>
+      <c r="AP90" s="51"/>
+      <c r="AQ90" s="51"/>
+      <c r="AR90" s="51"/>
+      <c r="AS90" s="51"/>
+      <c r="AT90" s="51"/>
+      <c r="AU90" s="51"/>
+      <c r="AV90" s="51"/>
+      <c r="AW90" s="51"/>
+      <c r="AX90" s="51"/>
+      <c r="AY90" s="51"/>
+      <c r="AZ90" s="51"/>
+      <c r="BA90" s="51"/>
+      <c r="BB90" s="51"/>
+      <c r="BC90" s="51"/>
+      <c r="BD90" s="51"/>
+      <c r="BE90" s="51"/>
+      <c r="BF90" s="51"/>
+      <c r="BG90" s="51"/>
+      <c r="BH90" s="51"/>
+      <c r="BI90" s="51"/>
+      <c r="BJ90" s="51"/>
+      <c r="BK90" s="51"/>
+      <c r="BL90" s="51"/>
+    </row>
+    <row r="91" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="45"/>
+      <c r="B91" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="56"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="3">
+        <f t="shared" si="18"/>
+        <v>43848</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="17"/>
+        <v>43853</v>
+      </c>
+      <c r="G91" s="16">
+        <v>5</v>
+      </c>
+      <c r="H91" s="16"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
+      <c r="T91" s="51"/>
+      <c r="U91" s="51"/>
+      <c r="V91" s="51"/>
+      <c r="W91" s="51"/>
+      <c r="X91" s="51"/>
+      <c r="Y91" s="51"/>
+      <c r="Z91" s="51"/>
+      <c r="AA91" s="51"/>
+      <c r="AB91" s="51"/>
+      <c r="AC91" s="51"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
+      <c r="AF91" s="51"/>
+      <c r="AG91" s="51"/>
+      <c r="AH91" s="51"/>
+      <c r="AI91" s="51"/>
+      <c r="AJ91" s="51"/>
+      <c r="AK91" s="51"/>
+      <c r="AL91" s="51"/>
+      <c r="AM91" s="51"/>
+      <c r="AN91" s="51"/>
+      <c r="AO91" s="51"/>
+      <c r="AP91" s="51"/>
+      <c r="AQ91" s="51"/>
+      <c r="AR91" s="51"/>
+      <c r="AS91" s="51"/>
+      <c r="AT91" s="51"/>
+      <c r="AU91" s="51"/>
+      <c r="AV91" s="51"/>
+      <c r="AW91" s="51"/>
+      <c r="AX91" s="51"/>
+      <c r="AY91" s="51"/>
+      <c r="AZ91" s="51"/>
+      <c r="BA91" s="51"/>
+      <c r="BB91" s="51"/>
+      <c r="BC91" s="51"/>
+      <c r="BD91" s="51"/>
+      <c r="BE91" s="51"/>
+      <c r="BF91" s="51"/>
+      <c r="BG91" s="51"/>
+      <c r="BH91" s="51"/>
+      <c r="BI91" s="51"/>
+      <c r="BJ91" s="51"/>
+      <c r="BK91" s="51"/>
+      <c r="BL91" s="51"/>
+    </row>
+    <row r="92" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="45"/>
+      <c r="B92" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="56"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="3">
+        <f t="shared" si="18"/>
+        <v>43854</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="17"/>
+        <v>43859</v>
+      </c>
+      <c r="G92" s="16">
+        <v>5</v>
+      </c>
+      <c r="H92" s="16"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
+      <c r="O92" s="51"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="51"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="51"/>
+      <c r="T92" s="51"/>
+      <c r="U92" s="51"/>
+      <c r="V92" s="51"/>
+      <c r="W92" s="51"/>
+      <c r="X92" s="51"/>
+      <c r="Y92" s="51"/>
+      <c r="Z92" s="51"/>
+      <c r="AA92" s="51"/>
+      <c r="AB92" s="51"/>
+      <c r="AC92" s="51"/>
+      <c r="AD92" s="51"/>
+      <c r="AE92" s="51"/>
+      <c r="AF92" s="51"/>
+      <c r="AG92" s="51"/>
+      <c r="AH92" s="51"/>
+      <c r="AI92" s="51"/>
+      <c r="AJ92" s="51"/>
+      <c r="AK92" s="51"/>
+      <c r="AL92" s="51"/>
+      <c r="AM92" s="51"/>
+      <c r="AN92" s="51"/>
+      <c r="AO92" s="51"/>
+      <c r="AP92" s="51"/>
+      <c r="AQ92" s="51"/>
+      <c r="AR92" s="51"/>
+      <c r="AS92" s="51"/>
+      <c r="AT92" s="51"/>
+      <c r="AU92" s="51"/>
+      <c r="AV92" s="51"/>
+      <c r="AW92" s="51"/>
+      <c r="AX92" s="51"/>
+      <c r="AY92" s="51"/>
+      <c r="AZ92" s="51"/>
+      <c r="BA92" s="51"/>
+      <c r="BB92" s="51"/>
+      <c r="BC92" s="51"/>
+      <c r="BD92" s="51"/>
+      <c r="BE92" s="51"/>
+      <c r="BF92" s="51"/>
+      <c r="BG92" s="51"/>
+      <c r="BH92" s="51"/>
+      <c r="BI92" s="51"/>
+      <c r="BJ92" s="51"/>
+      <c r="BK92" s="51"/>
+      <c r="BL92" s="51"/>
+    </row>
+    <row r="93" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="57"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
+      <c r="T93" s="51"/>
+      <c r="U93" s="51"/>
+      <c r="V93" s="51"/>
+      <c r="W93" s="51"/>
+      <c r="X93" s="51"/>
+      <c r="Y93" s="51"/>
+      <c r="Z93" s="51"/>
+      <c r="AA93" s="51"/>
+      <c r="AB93" s="51"/>
+      <c r="AC93" s="51"/>
+      <c r="AD93" s="51"/>
+      <c r="AE93" s="51"/>
+      <c r="AF93" s="51"/>
+      <c r="AG93" s="51"/>
+      <c r="AH93" s="51"/>
+      <c r="AI93" s="51"/>
+      <c r="AJ93" s="51"/>
+      <c r="AK93" s="51"/>
+      <c r="AL93" s="51"/>
+      <c r="AM93" s="51"/>
+      <c r="AN93" s="51"/>
+      <c r="AO93" s="51"/>
+      <c r="AP93" s="51"/>
+      <c r="AQ93" s="51"/>
+      <c r="AR93" s="51"/>
+      <c r="AS93" s="51"/>
+      <c r="AT93" s="51"/>
+      <c r="AU93" s="51"/>
+      <c r="AV93" s="51"/>
+      <c r="AW93" s="51"/>
+      <c r="AX93" s="51"/>
+      <c r="AY93" s="51"/>
+      <c r="AZ93" s="51"/>
+      <c r="BA93" s="51"/>
+      <c r="BB93" s="51"/>
+      <c r="BC93" s="51"/>
+      <c r="BD93" s="51"/>
+      <c r="BE93" s="51"/>
+      <c r="BF93" s="51"/>
+      <c r="BG93" s="51"/>
+      <c r="BH93" s="51"/>
+      <c r="BI93" s="51"/>
+      <c r="BJ93" s="51"/>
+      <c r="BK93" s="51"/>
+      <c r="BL93" s="51"/>
+    </row>
+    <row r="94" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="45"/>
+      <c r="B94" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="58"/>
+      <c r="D94" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="E94" s="4">
+        <v>43832</v>
+      </c>
+      <c r="F94" s="4">
+        <f t="shared" si="17"/>
+        <v>43852</v>
+      </c>
+      <c r="G94" s="16">
+        <v>20</v>
+      </c>
+      <c r="H94" s="16">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
+      <c r="O94" s="51"/>
+      <c r="P94" s="51"/>
+      <c r="Q94" s="51"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="51"/>
+      <c r="T94" s="51"/>
+      <c r="U94" s="51"/>
+      <c r="V94" s="51"/>
+      <c r="W94" s="51"/>
+      <c r="X94" s="51"/>
+      <c r="Y94" s="51"/>
+      <c r="Z94" s="51"/>
+      <c r="AA94" s="51"/>
+      <c r="AB94" s="51"/>
+      <c r="AC94" s="51"/>
+      <c r="AD94" s="51"/>
+      <c r="AE94" s="51"/>
+      <c r="AF94" s="51"/>
+      <c r="AG94" s="51"/>
+      <c r="AH94" s="51"/>
+      <c r="AI94" s="51"/>
+      <c r="AJ94" s="51"/>
+      <c r="AK94" s="51"/>
+      <c r="AL94" s="51"/>
+      <c r="AM94" s="51"/>
+      <c r="AN94" s="51"/>
+      <c r="AO94" s="51"/>
+      <c r="AP94" s="51"/>
+      <c r="AQ94" s="51"/>
+      <c r="AR94" s="51"/>
+      <c r="AS94" s="51"/>
+      <c r="AT94" s="51"/>
+      <c r="AU94" s="51"/>
+      <c r="AV94" s="51"/>
+      <c r="AW94" s="51"/>
+      <c r="AX94" s="51"/>
+      <c r="AY94" s="51"/>
+      <c r="AZ94" s="51"/>
+      <c r="BA94" s="51"/>
+      <c r="BB94" s="51"/>
+      <c r="BC94" s="51"/>
+      <c r="BD94" s="51"/>
+      <c r="BE94" s="51"/>
+      <c r="BF94" s="51"/>
+      <c r="BG94" s="51"/>
+      <c r="BH94" s="51"/>
+      <c r="BI94" s="51"/>
+      <c r="BJ94" s="51"/>
+      <c r="BK94" s="51"/>
+      <c r="BL94" s="51"/>
+    </row>
+    <row r="95" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="45"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="51"/>
+      <c r="R95" s="51"/>
+      <c r="S95" s="51"/>
+      <c r="T95" s="51"/>
+      <c r="U95" s="51"/>
+      <c r="V95" s="51"/>
+      <c r="W95" s="51"/>
+      <c r="X95" s="51"/>
+      <c r="Y95" s="51"/>
+      <c r="Z95" s="51"/>
+      <c r="AA95" s="51"/>
+      <c r="AB95" s="51"/>
+      <c r="AC95" s="51"/>
+      <c r="AD95" s="51"/>
+      <c r="AE95" s="51"/>
+      <c r="AF95" s="51"/>
+      <c r="AG95" s="51"/>
+      <c r="AH95" s="51"/>
+      <c r="AI95" s="51"/>
+      <c r="AJ95" s="51"/>
+      <c r="AK95" s="51"/>
+      <c r="AL95" s="51"/>
+      <c r="AM95" s="51"/>
+      <c r="AN95" s="51"/>
+      <c r="AO95" s="51"/>
+      <c r="AP95" s="51"/>
+      <c r="AQ95" s="51"/>
+      <c r="AR95" s="51"/>
+      <c r="AS95" s="51"/>
+      <c r="AT95" s="51"/>
+      <c r="AU95" s="51"/>
+      <c r="AV95" s="51"/>
+      <c r="AW95" s="51"/>
+      <c r="AX95" s="51"/>
+      <c r="AY95" s="51"/>
+      <c r="AZ95" s="51"/>
+      <c r="BA95" s="51"/>
+      <c r="BB95" s="51"/>
+      <c r="BC95" s="51"/>
+      <c r="BD95" s="51"/>
+      <c r="BE95" s="51"/>
+      <c r="BF95" s="51"/>
+      <c r="BG95" s="51"/>
+      <c r="BH95" s="51"/>
+      <c r="BI95" s="51"/>
+      <c r="BJ95" s="51"/>
+      <c r="BK95" s="51"/>
+      <c r="BL95" s="51"/>
+    </row>
+    <row r="96" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="83"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="90"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="51"/>
+      <c r="R96" s="51"/>
+      <c r="S96" s="51"/>
+      <c r="T96" s="51"/>
+      <c r="U96" s="51"/>
+      <c r="V96" s="51"/>
+      <c r="W96" s="51"/>
+      <c r="X96" s="51"/>
+      <c r="Y96" s="51"/>
+      <c r="Z96" s="51"/>
+      <c r="AA96" s="51"/>
+      <c r="AB96" s="51"/>
+      <c r="AC96" s="51"/>
+      <c r="AD96" s="51"/>
+      <c r="AE96" s="51"/>
+      <c r="AF96" s="51"/>
+      <c r="AG96" s="51"/>
+      <c r="AH96" s="51"/>
+      <c r="AI96" s="51"/>
+      <c r="AJ96" s="51"/>
+      <c r="AK96" s="51"/>
+      <c r="AL96" s="51"/>
+      <c r="AM96" s="51"/>
+      <c r="AN96" s="51"/>
+      <c r="AO96" s="51"/>
+      <c r="AP96" s="51"/>
+      <c r="AQ96" s="51"/>
+      <c r="AR96" s="51"/>
+      <c r="AS96" s="51"/>
+      <c r="AT96" s="51"/>
+      <c r="AU96" s="51"/>
+      <c r="AV96" s="51"/>
+      <c r="AW96" s="51"/>
+      <c r="AX96" s="51"/>
+      <c r="AY96" s="51"/>
+      <c r="AZ96" s="51"/>
+      <c r="BA96" s="51"/>
+      <c r="BB96" s="51"/>
+      <c r="BC96" s="51"/>
+      <c r="BD96" s="51"/>
+      <c r="BE96" s="51"/>
+      <c r="BF96" s="51"/>
+      <c r="BG96" s="51"/>
+      <c r="BH96" s="51"/>
+      <c r="BI96" s="51"/>
+      <c r="BJ96" s="51"/>
+      <c r="BK96" s="51"/>
+      <c r="BL96" s="51"/>
+    </row>
+    <row r="97" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="45"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="87"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="51"/>
+      <c r="T97" s="51"/>
+      <c r="U97" s="51"/>
+      <c r="V97" s="51"/>
+      <c r="W97" s="51"/>
+      <c r="X97" s="51"/>
+      <c r="Y97" s="51"/>
+      <c r="Z97" s="51"/>
+      <c r="AA97" s="51"/>
+      <c r="AB97" s="51"/>
+      <c r="AC97" s="51"/>
+      <c r="AD97" s="51"/>
+      <c r="AE97" s="51"/>
+      <c r="AF97" s="51"/>
+      <c r="AG97" s="51"/>
+      <c r="AH97" s="51"/>
+      <c r="AI97" s="51"/>
+      <c r="AJ97" s="51"/>
+      <c r="AK97" s="51"/>
+      <c r="AL97" s="51"/>
+      <c r="AM97" s="51"/>
+      <c r="AN97" s="51"/>
+      <c r="AO97" s="51"/>
+      <c r="AP97" s="51"/>
+      <c r="AQ97" s="51"/>
+      <c r="AR97" s="51"/>
+      <c r="AS97" s="51"/>
+      <c r="AT97" s="51"/>
+      <c r="AU97" s="51"/>
+      <c r="AV97" s="51"/>
+      <c r="AW97" s="51"/>
+      <c r="AX97" s="51"/>
+      <c r="AY97" s="51"/>
+      <c r="AZ97" s="51"/>
+      <c r="BA97" s="51"/>
+      <c r="BB97" s="51"/>
+      <c r="BC97" s="51"/>
+      <c r="BD97" s="51"/>
+      <c r="BE97" s="51"/>
+      <c r="BF97" s="51"/>
+      <c r="BG97" s="51"/>
+      <c r="BH97" s="51"/>
+      <c r="BI97" s="51"/>
+      <c r="BJ97" s="51"/>
+      <c r="BK97" s="51"/>
+      <c r="BL97" s="51"/>
+    </row>
+    <row r="98" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="45"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="51"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="51"/>
+      <c r="Q98" s="51"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="51"/>
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="51"/>
+      <c r="W98" s="51"/>
+      <c r="X98" s="51"/>
+      <c r="Y98" s="51"/>
+      <c r="Z98" s="51"/>
+      <c r="AA98" s="51"/>
+      <c r="AB98" s="51"/>
+      <c r="AC98" s="51"/>
+      <c r="AD98" s="51"/>
+      <c r="AE98" s="51"/>
+      <c r="AF98" s="51"/>
+      <c r="AG98" s="51"/>
+      <c r="AH98" s="51"/>
+      <c r="AI98" s="51"/>
+      <c r="AJ98" s="51"/>
+      <c r="AK98" s="51"/>
+      <c r="AL98" s="51"/>
+      <c r="AM98" s="51"/>
+      <c r="AN98" s="51"/>
+      <c r="AO98" s="51"/>
+      <c r="AP98" s="51"/>
+      <c r="AQ98" s="51"/>
+      <c r="AR98" s="51"/>
+      <c r="AS98" s="51"/>
+      <c r="AT98" s="51"/>
+      <c r="AU98" s="51"/>
+      <c r="AV98" s="51"/>
+      <c r="AW98" s="51"/>
+      <c r="AX98" s="51"/>
+      <c r="AY98" s="51"/>
+      <c r="AZ98" s="51"/>
+      <c r="BA98" s="51"/>
+      <c r="BB98" s="51"/>
+      <c r="BC98" s="51"/>
+      <c r="BD98" s="51"/>
+      <c r="BE98" s="51"/>
+      <c r="BF98" s="51"/>
+      <c r="BG98" s="51"/>
+      <c r="BH98" s="51"/>
+      <c r="BI98" s="51"/>
+      <c r="BJ98" s="51"/>
+      <c r="BK98" s="51"/>
+      <c r="BL98" s="51"/>
+    </row>
+    <row r="99" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="45"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51"/>
+      <c r="R99" s="51"/>
+      <c r="S99" s="51"/>
+      <c r="T99" s="51"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="51"/>
+      <c r="W99" s="51"/>
+      <c r="X99" s="51"/>
+      <c r="Y99" s="51"/>
+      <c r="Z99" s="51"/>
+      <c r="AA99" s="51"/>
+      <c r="AB99" s="51"/>
+      <c r="AC99" s="51"/>
+      <c r="AD99" s="51"/>
+      <c r="AE99" s="51"/>
+      <c r="AF99" s="51"/>
+      <c r="AG99" s="51"/>
+      <c r="AH99" s="51"/>
+      <c r="AI99" s="51"/>
+      <c r="AJ99" s="51"/>
+      <c r="AK99" s="51"/>
+      <c r="AL99" s="51"/>
+      <c r="AM99" s="51"/>
+      <c r="AN99" s="51"/>
+      <c r="AO99" s="51"/>
+      <c r="AP99" s="51"/>
+      <c r="AQ99" s="51"/>
+      <c r="AR99" s="51"/>
+      <c r="AS99" s="51"/>
+      <c r="AT99" s="51"/>
+      <c r="AU99" s="51"/>
+      <c r="AV99" s="51"/>
+      <c r="AW99" s="51"/>
+      <c r="AX99" s="51"/>
+      <c r="AY99" s="51"/>
+      <c r="AZ99" s="51"/>
+      <c r="BA99" s="51"/>
+      <c r="BB99" s="51"/>
+      <c r="BC99" s="51"/>
+      <c r="BD99" s="51"/>
+      <c r="BE99" s="51"/>
+      <c r="BF99" s="51"/>
+      <c r="BG99" s="51"/>
+      <c r="BH99" s="51"/>
+      <c r="BI99" s="51"/>
+      <c r="BJ99" s="51"/>
+      <c r="BK99" s="51"/>
+      <c r="BL99" s="51"/>
+    </row>
+    <row r="100" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="45"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="51"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="51"/>
+      <c r="R100" s="51"/>
+      <c r="S100" s="51"/>
+      <c r="T100" s="51"/>
+      <c r="U100" s="51"/>
+      <c r="V100" s="51"/>
+      <c r="W100" s="51"/>
+      <c r="X100" s="51"/>
+      <c r="Y100" s="51"/>
+      <c r="Z100" s="51"/>
+      <c r="AA100" s="51"/>
+      <c r="AB100" s="51"/>
+      <c r="AC100" s="51"/>
+      <c r="AD100" s="51"/>
+      <c r="AE100" s="51"/>
+      <c r="AF100" s="51"/>
+      <c r="AG100" s="51"/>
+      <c r="AH100" s="51"/>
+      <c r="AI100" s="51"/>
+      <c r="AJ100" s="51"/>
+      <c r="AK100" s="51"/>
+      <c r="AL100" s="51"/>
+      <c r="AM100" s="51"/>
+      <c r="AN100" s="51"/>
+      <c r="AO100" s="51"/>
+      <c r="AP100" s="51"/>
+      <c r="AQ100" s="51"/>
+      <c r="AR100" s="51"/>
+      <c r="AS100" s="51"/>
+      <c r="AT100" s="51"/>
+      <c r="AU100" s="51"/>
+      <c r="AV100" s="51"/>
+      <c r="AW100" s="51"/>
+      <c r="AX100" s="51"/>
+      <c r="AY100" s="51"/>
+      <c r="AZ100" s="51"/>
+      <c r="BA100" s="51"/>
+      <c r="BB100" s="51"/>
+      <c r="BC100" s="51"/>
+      <c r="BD100" s="51"/>
+      <c r="BE100" s="51"/>
+      <c r="BF100" s="51"/>
+      <c r="BG100" s="51"/>
+      <c r="BH100" s="51"/>
+      <c r="BI100" s="51"/>
+      <c r="BJ100" s="51"/>
+      <c r="BK100" s="51"/>
+      <c r="BL100" s="51"/>
+    </row>
+    <row r="101" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="45"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="82"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
+      <c r="R101" s="51"/>
+      <c r="S101" s="51"/>
+      <c r="T101" s="51"/>
+      <c r="U101" s="51"/>
+      <c r="V101" s="51"/>
+      <c r="W101" s="51"/>
+      <c r="X101" s="51"/>
+      <c r="Y101" s="51"/>
+      <c r="Z101" s="51"/>
+      <c r="AA101" s="51"/>
+      <c r="AB101" s="51"/>
+      <c r="AC101" s="51"/>
+      <c r="AD101" s="51"/>
+      <c r="AE101" s="51"/>
+      <c r="AF101" s="51"/>
+      <c r="AG101" s="51"/>
+      <c r="AH101" s="51"/>
+      <c r="AI101" s="51"/>
+      <c r="AJ101" s="51"/>
+      <c r="AK101" s="51"/>
+      <c r="AL101" s="51"/>
+      <c r="AM101" s="51"/>
+      <c r="AN101" s="51"/>
+      <c r="AO101" s="51"/>
+      <c r="AP101" s="51"/>
+      <c r="AQ101" s="51"/>
+      <c r="AR101" s="51"/>
+      <c r="AS101" s="51"/>
+      <c r="AT101" s="51"/>
+      <c r="AU101" s="51"/>
+      <c r="AV101" s="51"/>
+      <c r="AW101" s="51"/>
+      <c r="AX101" s="51"/>
+      <c r="AY101" s="51"/>
+      <c r="AZ101" s="51"/>
+      <c r="BA101" s="51"/>
+      <c r="BB101" s="51"/>
+      <c r="BC101" s="51"/>
+      <c r="BD101" s="51"/>
+      <c r="BE101" s="51"/>
+      <c r="BF101" s="51"/>
+      <c r="BG101" s="51"/>
+      <c r="BH101" s="51"/>
+      <c r="BI101" s="51"/>
+      <c r="BJ101" s="51"/>
+      <c r="BK101" s="51"/>
+      <c r="BL101" s="51"/>
+    </row>
+    <row r="102" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="45"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="87"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
+      <c r="T102" s="51"/>
+      <c r="U102" s="51"/>
+      <c r="V102" s="51"/>
+      <c r="W102" s="51"/>
+      <c r="X102" s="51"/>
+      <c r="Y102" s="51"/>
+      <c r="Z102" s="51"/>
+      <c r="AA102" s="51"/>
+      <c r="AB102" s="51"/>
+      <c r="AC102" s="51"/>
+      <c r="AD102" s="51"/>
+      <c r="AE102" s="51"/>
+      <c r="AF102" s="51"/>
+      <c r="AG102" s="51"/>
+      <c r="AH102" s="51"/>
+      <c r="AI102" s="51"/>
+      <c r="AJ102" s="51"/>
+      <c r="AK102" s="51"/>
+      <c r="AL102" s="51"/>
+      <c r="AM102" s="51"/>
+      <c r="AN102" s="51"/>
+      <c r="AO102" s="51"/>
+      <c r="AP102" s="51"/>
+      <c r="AQ102" s="51"/>
+      <c r="AR102" s="51"/>
+      <c r="AS102" s="51"/>
+      <c r="AT102" s="51"/>
+      <c r="AU102" s="51"/>
+      <c r="AV102" s="51"/>
+      <c r="AW102" s="51"/>
+      <c r="AX102" s="51"/>
+      <c r="AY102" s="51"/>
+      <c r="AZ102" s="51"/>
+      <c r="BA102" s="51"/>
+      <c r="BB102" s="51"/>
+      <c r="BC102" s="51"/>
+      <c r="BD102" s="51"/>
+      <c r="BE102" s="51"/>
+      <c r="BF102" s="51"/>
+      <c r="BG102" s="51"/>
+      <c r="BH102" s="51"/>
+      <c r="BI102" s="51"/>
+      <c r="BJ102" s="51"/>
+      <c r="BK102" s="51"/>
+      <c r="BL102" s="51"/>
+    </row>
+    <row r="103" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="45"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="82"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="51"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="51"/>
+      <c r="W103" s="51"/>
+      <c r="X103" s="51"/>
+      <c r="Y103" s="51"/>
+      <c r="Z103" s="51"/>
+      <c r="AA103" s="51"/>
+      <c r="AB103" s="51"/>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="51"/>
+      <c r="AF103" s="51"/>
+      <c r="AG103" s="51"/>
+      <c r="AH103" s="51"/>
+      <c r="AI103" s="51"/>
+      <c r="AJ103" s="51"/>
+      <c r="AK103" s="51"/>
+      <c r="AL103" s="51"/>
+      <c r="AM103" s="51"/>
+      <c r="AN103" s="51"/>
+      <c r="AO103" s="51"/>
+      <c r="AP103" s="51"/>
+      <c r="AQ103" s="51"/>
+      <c r="AR103" s="51"/>
+      <c r="AS103" s="51"/>
+      <c r="AT103" s="51"/>
+      <c r="AU103" s="51"/>
+      <c r="AV103" s="51"/>
+      <c r="AW103" s="51"/>
+      <c r="AX103" s="51"/>
+      <c r="AY103" s="51"/>
+      <c r="AZ103" s="51"/>
+      <c r="BA103" s="51"/>
+      <c r="BB103" s="51"/>
+      <c r="BC103" s="51"/>
+      <c r="BD103" s="51"/>
+      <c r="BE103" s="51"/>
+      <c r="BF103" s="51"/>
+      <c r="BG103" s="51"/>
+      <c r="BH103" s="51"/>
+      <c r="BI103" s="51"/>
+      <c r="BJ103" s="51"/>
+      <c r="BK103" s="51"/>
+      <c r="BL103" s="51"/>
+    </row>
+    <row r="104" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="45"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
+      <c r="U104" s="51"/>
+      <c r="V104" s="51"/>
+      <c r="W104" s="51"/>
+      <c r="X104" s="51"/>
+      <c r="Y104" s="51"/>
+      <c r="Z104" s="51"/>
+      <c r="AA104" s="51"/>
+      <c r="AB104" s="51"/>
+      <c r="AC104" s="51"/>
+      <c r="AD104" s="51"/>
+      <c r="AE104" s="51"/>
+      <c r="AF104" s="51"/>
+      <c r="AG104" s="51"/>
+      <c r="AH104" s="51"/>
+      <c r="AI104" s="51"/>
+      <c r="AJ104" s="51"/>
+      <c r="AK104" s="51"/>
+      <c r="AL104" s="51"/>
+      <c r="AM104" s="51"/>
+      <c r="AN104" s="51"/>
+      <c r="AO104" s="51"/>
+      <c r="AP104" s="51"/>
+      <c r="AQ104" s="51"/>
+      <c r="AR104" s="51"/>
+      <c r="AS104" s="51"/>
+      <c r="AT104" s="51"/>
+      <c r="AU104" s="51"/>
+      <c r="AV104" s="51"/>
+      <c r="AW104" s="51"/>
+      <c r="AX104" s="51"/>
+      <c r="AY104" s="51"/>
+      <c r="AZ104" s="51"/>
+      <c r="BA104" s="51"/>
+      <c r="BB104" s="51"/>
+      <c r="BC104" s="51"/>
+      <c r="BD104" s="51"/>
+      <c r="BE104" s="51"/>
+      <c r="BF104" s="51"/>
+      <c r="BG104" s="51"/>
+      <c r="BH104" s="51"/>
+      <c r="BI104" s="51"/>
+      <c r="BJ104" s="51"/>
+      <c r="BK104" s="51"/>
+      <c r="BL104" s="51"/>
+    </row>
+    <row r="105" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="59"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="51"/>
+      <c r="V105" s="51"/>
+      <c r="W105" s="51"/>
+      <c r="X105" s="51"/>
+      <c r="Y105" s="51"/>
+      <c r="Z105" s="51"/>
+      <c r="AA105" s="51"/>
+      <c r="AB105" s="51"/>
+      <c r="AC105" s="51"/>
+      <c r="AD105" s="51"/>
+      <c r="AE105" s="51"/>
+      <c r="AF105" s="51"/>
+      <c r="AG105" s="51"/>
+      <c r="AH105" s="51"/>
+      <c r="AI105" s="51"/>
+      <c r="AJ105" s="51"/>
+      <c r="AK105" s="51"/>
+      <c r="AL105" s="51"/>
+      <c r="AM105" s="51"/>
+      <c r="AN105" s="51"/>
+      <c r="AO105" s="51"/>
+      <c r="AP105" s="51"/>
+      <c r="AQ105" s="51"/>
+      <c r="AR105" s="51"/>
+      <c r="AS105" s="51"/>
+      <c r="AT105" s="51"/>
+      <c r="AU105" s="51"/>
+      <c r="AV105" s="51"/>
+      <c r="AW105" s="51"/>
+      <c r="AX105" s="51"/>
+      <c r="AY105" s="51"/>
+      <c r="AZ105" s="51"/>
+      <c r="BA105" s="51"/>
+      <c r="BB105" s="51"/>
+      <c r="BC105" s="51"/>
+      <c r="BD105" s="51"/>
+      <c r="BE105" s="51"/>
+      <c r="BF105" s="51"/>
+      <c r="BG105" s="51"/>
+      <c r="BH105" s="51"/>
+      <c r="BI105" s="51"/>
+      <c r="BJ105" s="51"/>
+      <c r="BK105" s="51"/>
+      <c r="BL105" s="51"/>
+    </row>
+    <row r="106" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="29"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I106" s="62"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="62"/>
+      <c r="O106" s="62"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="62"/>
+      <c r="S106" s="62"/>
+      <c r="T106" s="62"/>
+      <c r="U106" s="62"/>
+      <c r="V106" s="62"/>
+      <c r="W106" s="62"/>
+      <c r="X106" s="62"/>
+      <c r="Y106" s="62"/>
+      <c r="Z106" s="62"/>
+      <c r="AA106" s="62"/>
+      <c r="AB106" s="62"/>
+      <c r="AC106" s="62"/>
+      <c r="AD106" s="62"/>
+      <c r="AE106" s="62"/>
+      <c r="AF106" s="62"/>
+      <c r="AG106" s="62"/>
+      <c r="AH106" s="62"/>
+      <c r="AI106" s="62"/>
+      <c r="AJ106" s="62"/>
+      <c r="AK106" s="62"/>
+      <c r="AL106" s="62"/>
+      <c r="AM106" s="62"/>
+      <c r="AN106" s="62"/>
+      <c r="AO106" s="62"/>
+      <c r="AP106" s="62"/>
+      <c r="AQ106" s="62"/>
+      <c r="AR106" s="62"/>
+      <c r="AS106" s="62"/>
+      <c r="AT106" s="62"/>
+      <c r="AU106" s="62"/>
+      <c r="AV106" s="62"/>
+      <c r="AW106" s="62"/>
+      <c r="AX106" s="62"/>
+      <c r="AY106" s="62"/>
+      <c r="AZ106" s="62"/>
+      <c r="BA106" s="62"/>
+      <c r="BB106" s="62"/>
+      <c r="BC106" s="62"/>
+      <c r="BD106" s="62"/>
+      <c r="BE106" s="62"/>
+      <c r="BF106" s="62"/>
+      <c r="BG106" s="62"/>
+      <c r="BH106" s="62"/>
+      <c r="BI106" s="62"/>
+      <c r="BJ106" s="62"/>
+      <c r="BK106" s="62"/>
+      <c r="BL106" s="62"/>
+    </row>
+    <row r="107" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="63"/>
+    </row>
+    <row r="108" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="F108" s="34"/>
+    </row>
+    <row r="109" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -8401,10 +11284,15 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D73:D74 D55:D63 D19 D7:D11">
-    <cfRule type="dataBar" priority="159">
+  <conditionalFormatting sqref="D105:D106 D87:D95 D19 D7:D11">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8417,21 +11305,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL11 I73:BL74 I55:BL63 I19:BL19">
-    <cfRule type="expression" dxfId="53" priority="178">
+  <conditionalFormatting sqref="I5:BL11 I105:BL106 I87:BL95 I19:BL19">
+    <cfRule type="expression" dxfId="74" priority="208">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL11 I73:BL74 I55:BL63 I19:BL19">
-    <cfRule type="expression" dxfId="52" priority="172">
+  <conditionalFormatting sqref="I7:BL11 I105:BL106 I87:BL95 I19:BL19">
+    <cfRule type="expression" dxfId="73" priority="202">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="203" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D68 D72">
-    <cfRule type="dataBar" priority="122">
+  <conditionalFormatting sqref="D96:D100 D104">
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8444,21 +11332,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL68 I72:BL72">
-    <cfRule type="expression" dxfId="50" priority="125">
+  <conditionalFormatting sqref="I96:BL100 I104:BL104">
+    <cfRule type="expression" dxfId="71" priority="155">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL68 I72:BL72">
-    <cfRule type="expression" dxfId="49" priority="123">
+  <conditionalFormatting sqref="I96:BL100 I104:BL104">
+    <cfRule type="expression" dxfId="70" priority="153">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="154" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="dataBar" priority="118">
+  <conditionalFormatting sqref="D101">
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8471,21 +11359,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL69">
-    <cfRule type="expression" dxfId="47" priority="121">
+  <conditionalFormatting sqref="I101:BL101">
+    <cfRule type="expression" dxfId="68" priority="151">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL69">
-    <cfRule type="expression" dxfId="46" priority="119">
+  <conditionalFormatting sqref="I101:BL101">
+    <cfRule type="expression" dxfId="67" priority="149">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="150" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="dataBar" priority="114">
+  <conditionalFormatting sqref="D102">
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8498,21 +11386,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
-    <cfRule type="expression" dxfId="44" priority="117">
+  <conditionalFormatting sqref="I102:BL102">
+    <cfRule type="expression" dxfId="65" priority="147">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
-    <cfRule type="expression" dxfId="43" priority="115">
+  <conditionalFormatting sqref="I102:BL102">
+    <cfRule type="expression" dxfId="64" priority="145">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="146" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="dataBar" priority="110">
+  <conditionalFormatting sqref="D103">
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8525,21 +11413,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
-    <cfRule type="expression" dxfId="41" priority="113">
+  <conditionalFormatting sqref="I103:BL103">
+    <cfRule type="expression" dxfId="62" priority="143">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
-    <cfRule type="expression" dxfId="40" priority="111">
+  <conditionalFormatting sqref="I103:BL103">
+    <cfRule type="expression" dxfId="61" priority="141">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="142" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8553,20 +11441,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL13 I18:BL18">
-    <cfRule type="expression" dxfId="38" priority="53">
+    <cfRule type="expression" dxfId="59" priority="83">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL13 I18:BL18">
-    <cfRule type="expression" dxfId="37" priority="51">
+    <cfRule type="expression" dxfId="58" priority="81">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="82" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8580,59 +11468,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="35" priority="49">
+    <cfRule type="expression" dxfId="56" priority="79">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="34" priority="47">
+    <cfRule type="expression" dxfId="55" priority="77">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="32" priority="45">
+    <cfRule type="expression" dxfId="53" priority="75">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="31" priority="43">
+    <cfRule type="expression" dxfId="52" priority="73">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="74" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="29" priority="41">
+    <cfRule type="expression" dxfId="50" priority="71">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="49" priority="69">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="70" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="26" priority="37">
+    <cfRule type="expression" dxfId="47" priority="67">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="46" priority="65">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D18">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8645,8 +11533,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D23">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="D20:D24">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8660,47 +11548,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BL23">
-    <cfRule type="expression" dxfId="23" priority="32">
+    <cfRule type="expression" dxfId="44" priority="62">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BL23">
-    <cfRule type="expression" dxfId="22" priority="30">
+    <cfRule type="expression" dxfId="43" priority="60">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="61" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C976E1AC-F635-44C7-A7B7-9413D01D0F92}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="20" priority="28">
+    <cfRule type="expression" dxfId="41" priority="58">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="40" priority="56">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="57" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8714,20 +11588,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="38" priority="54">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="37" priority="52">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="53" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D36 D54">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D26:D36 D86">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8740,34 +11614,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL36 I54:BL54">
-    <cfRule type="expression" dxfId="14" priority="20">
+  <conditionalFormatting sqref="I26:BL36 I86:BL86">
+    <cfRule type="expression" dxfId="35" priority="50">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL36 I54:BL54">
-    <cfRule type="expression" dxfId="13" priority="18">
+  <conditionalFormatting sqref="I26:BL36 I86:BL86">
+    <cfRule type="expression" dxfId="34" priority="48">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="49" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL40">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL40">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="31" priority="44">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="45" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8781,20 +11655,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="29" priority="42">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8808,20 +11682,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="25" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D53">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8834,12 +11708,229 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL53">
+  <conditionalFormatting sqref="I43:BL54">
+    <cfRule type="expression" dxfId="23" priority="34">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:BL54">
+    <cfRule type="expression" dxfId="22" priority="32">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="33" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4BEF363-EC81-4E0C-BEC7-E2352ADCE30A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:D69">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6DE47895-B982-4EC2-85D3-DDD8D30FD884}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:D65">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{75A630BC-9415-42FA-8E61-15E3E43222BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL65">
+    <cfRule type="expression" dxfId="20" priority="29">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL65">
+    <cfRule type="expression" dxfId="19" priority="27">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:BL69">
+    <cfRule type="expression" dxfId="17" priority="25">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:BL69">
+    <cfRule type="expression" dxfId="16" priority="23">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D07444EA-4893-4537-9756-27EDF92CC429}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70:BL70">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70:BL70">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A4D91A3E-BBB5-4362-AD34-329530FA8A6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71:BL71">
+    <cfRule type="expression" dxfId="11" priority="17">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71:BL71">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72:D82">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A21F7B3C-DCB7-4461-BE71-312E8BC4C94A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:BL83">
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:BL83">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04308110-C45D-4A62-896C-66A9D71CE513}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2CDD6231-834A-46E2-BC32-DDDDEC7FCC1E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84:BL84">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84:BL84">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{743090A3-88F6-4E84-8569-E9C2FF09BD26}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85:BL85">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL53">
+  <conditionalFormatting sqref="I85:BL85">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -8874,7 +11965,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D73:D74 D55:D63 D19 D7:D11</xm:sqref>
+          <xm:sqref>D105:D106 D87:D95 D19 D7:D11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D2687AE-507A-4594-B59D-CE6E951D3C0B}">
@@ -8889,7 +11980,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64:D68 D72</xm:sqref>
+          <xm:sqref>D96:D100 D104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F74930FC-F3C9-4F62-9CC5-0828EF181132}">
@@ -8904,7 +11995,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D69</xm:sqref>
+          <xm:sqref>D101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E156B2B-67D0-4BAA-97F3-6FA5A2C6527C}">
@@ -8919,7 +12010,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70</xm:sqref>
+          <xm:sqref>D102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F97FDD9-EF27-4559-B8A9-37DC6A46E92D}">
@@ -8934,7 +12025,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D71</xm:sqref>
+          <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{48F437F0-2D4C-4E10-B001-0BDA56B6A2A6}">
@@ -8994,22 +12085,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D20:D23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C976E1AC-F635-44C7-A7B7-9413D01D0F92}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D24</xm:sqref>
+          <xm:sqref>D20:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6727C2F5-87DD-4BB5-A43F-BC2B8D1C7F6B}">
@@ -9039,7 +12115,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26:D36 D54</xm:sqref>
+          <xm:sqref>D26:D36 D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B077F634-140F-409C-897D-BBBBDD687111}">
@@ -9086,6 +12162,141 @@
           </x14:cfRule>
           <xm:sqref>D43:D53</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4BEF363-EC81-4E0C-BEC7-E2352ADCE30A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6DE47895-B982-4EC2-85D3-DDD8D30FD884}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D66:D69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{75A630BC-9415-42FA-8E61-15E3E43222BF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D55:D65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D07444EA-4893-4537-9756-27EDF92CC429}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A4D91A3E-BBB5-4362-AD34-329530FA8A6A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A21F7B3C-DCB7-4461-BE71-312E8BC4C94A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D72:D82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04308110-C45D-4A62-896C-66A9D71CE513}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2CDD6231-834A-46E2-BC32-DDDDEC7FCC1E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{743090A3-88F6-4E84-8569-E9C2FF09BD26}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D85</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/2020schedule.xlsx
+++ b/2020schedule.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
   <si>
     <t>在此工作表中创建项目日程安排。
 在单元格 B1 中输入此项目的标题。
@@ -195,10 +195,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>3.MySQL</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>2019 日程表</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -211,42 +207,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>1.特征预处理</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.数据降维</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.机器学习概述</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.K近邻算法</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.朴素贝叶斯算法</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>7决策树和随机森林</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.线性回归</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.逻辑回归</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.k-means</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>新概念英语</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -526,6 +486,50 @@
   </si>
   <si>
     <t>40、lesson 77-78 Terrible toothache</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.机器学习介绍</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.特征工程和文本特征提取</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.数据特征预处理</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据降维</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.机器学习概述</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.k-近邻算法</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.朴素贝叶斯算法</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.决策树和随机森林</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.线性回归</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.逻辑回归</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>穷查理宝典</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1616,13 +1620,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1635,6 +1632,13 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -3017,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -3038,117 +3042,117 @@
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="101">
+      <c r="D3" s="100"/>
+      <c r="E3" s="98">
         <v>43832</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="95">
         <f>I5</f>
         <v>43828</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="98">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f>P5</f>
         <v>43835</v>
       </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="98">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f>W5</f>
         <v>43842</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="98">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f>AD5</f>
         <v>43849</v>
       </c>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="98">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f>AK5</f>
         <v>43856</v>
       </c>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="98">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f>AR5</f>
         <v>43863</v>
       </c>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="98">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f>AY5</f>
         <v>43870</v>
       </c>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="98">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f>BF5</f>
         <v>43877</v>
       </c>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="100"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
       <c r="I5" s="68">
         <f>Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>43828</v>
@@ -3696,10 +3700,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="71"/>
@@ -3771,7 +3775,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="17">
@@ -3853,11 +3857,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <f>F9+1</f>
@@ -3934,11 +3938,11 @@
     <row r="11" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="79" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11:E18" si="7">F10+1</f>
@@ -4017,11 +4021,11 @@
         <v>8</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="7"/>
@@ -4100,7 +4104,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="17">
@@ -4181,7 +4185,7 @@
     <row r="14" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="79" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="17">
@@ -4262,7 +4266,7 @@
     <row r="15" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="79" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="17">
@@ -4343,7 +4347,7 @@
     <row r="16" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="79" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="17">
@@ -4424,7 +4428,7 @@
     <row r="17" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="79" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="17">
@@ -4505,7 +4509,7 @@
     <row r="18" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="79" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="17">
@@ -4588,10 +4592,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="91" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>52</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="73"/>
@@ -4661,7 +4665,7 @@
     <row r="20" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="80" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="20">
@@ -4741,7 +4745,7 @@
     <row r="21" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="80" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="20">
@@ -4822,7 +4826,7 @@
     <row r="22" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="80" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="20">
@@ -4903,7 +4907,7 @@
     <row r="23" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="80" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="20">
@@ -4984,7 +4988,7 @@
     <row r="24" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="80" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="20">
@@ -5065,7 +5069,7 @@
     <row r="25" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C25" s="55"/>
       <c r="D25" s="20"/>
@@ -5144,7 +5148,7 @@
     <row r="26" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="80" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="20"/>
@@ -5223,7 +5227,7 @@
     <row r="27" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="20"/>
@@ -5299,7 +5303,7 @@
     <row r="28" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="B28" s="80" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="20"/>
@@ -5375,7 +5379,7 @@
     <row r="29" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="80" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="20"/>
@@ -5451,7 +5455,7 @@
     <row r="30" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="80" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="20"/>
@@ -5527,7 +5531,7 @@
     <row r="31" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="80" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="20"/>
@@ -5603,7 +5607,7 @@
     <row r="32" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="80" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="20"/>
@@ -5679,7 +5683,7 @@
     <row r="33" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="80" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C33" s="55"/>
       <c r="D33" s="20"/>
@@ -5755,7 +5759,7 @@
     <row r="34" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="80" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C34" s="55"/>
       <c r="D34" s="20"/>
@@ -5831,7 +5835,7 @@
     <row r="35" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="80" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C35" s="55"/>
       <c r="D35" s="20"/>
@@ -5907,7 +5911,7 @@
     <row r="36" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="80" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="20"/>
@@ -5983,7 +5987,7 @@
     <row r="37" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="80" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="20"/>
@@ -6062,7 +6066,7 @@
     <row r="38" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
       <c r="B38" s="80" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C38" s="55"/>
       <c r="D38" s="20"/>
@@ -6141,7 +6145,7 @@
     <row r="39" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
       <c r="B39" s="80" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C39" s="55"/>
       <c r="D39" s="20"/>
@@ -6220,7 +6224,7 @@
     <row r="40" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
       <c r="B40" s="80" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="20"/>
@@ -6299,7 +6303,7 @@
     <row r="41" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
       <c r="B41" s="80" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="20"/>
@@ -6378,7 +6382,7 @@
     <row r="42" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
       <c r="B42" s="80" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="20"/>
@@ -6457,7 +6461,7 @@
     <row r="43" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
       <c r="B43" s="80" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="20"/>
@@ -6536,7 +6540,7 @@
     <row r="44" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
       <c r="B44" s="80" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="20"/>
@@ -6612,7 +6616,7 @@
     <row r="45" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
       <c r="B45" s="80" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="20"/>
@@ -6688,7 +6692,7 @@
     <row r="46" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
       <c r="B46" s="80" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="20"/>
@@ -6764,7 +6768,7 @@
     <row r="47" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
       <c r="B47" s="80" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="20"/>
@@ -6840,7 +6844,7 @@
     <row r="48" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
       <c r="B48" s="80" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="20"/>
@@ -6916,7 +6920,7 @@
     <row r="49" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
       <c r="B49" s="80" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="20"/>
@@ -6992,7 +6996,7 @@
     <row r="50" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
       <c r="B50" s="80" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="20"/>
@@ -7068,7 +7072,7 @@
     <row r="51" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
       <c r="B51" s="80" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="20"/>
@@ -7144,7 +7148,7 @@
     <row r="52" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="80" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="20"/>
@@ -7220,7 +7224,7 @@
     <row r="53" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
       <c r="B53" s="80" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="20"/>
@@ -7296,7 +7300,7 @@
     <row r="54" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
       <c r="B54" s="80" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="20"/>
@@ -7370,7 +7374,7 @@
     <row r="55" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
       <c r="B55" s="80" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="20"/>
@@ -7449,7 +7453,7 @@
     <row r="56" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45"/>
       <c r="B56" s="80" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="20"/>
@@ -7525,7 +7529,7 @@
     <row r="57" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
       <c r="B57" s="80" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="20"/>
@@ -7601,7 +7605,7 @@
     <row r="58" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
       <c r="B58" s="80" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="20"/>
@@ -7677,7 +7681,7 @@
     <row r="59" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
       <c r="B59" s="80" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="20"/>
@@ -7753,7 +7757,7 @@
     <row r="60" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
       <c r="B60" s="80" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C60" s="55"/>
       <c r="D60" s="20"/>
@@ -7829,7 +7833,7 @@
     <row r="61" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
       <c r="B61" s="80" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C61" s="55"/>
       <c r="D61" s="20"/>
@@ -7905,7 +7909,7 @@
     <row r="62" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
       <c r="B62" s="80" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="20"/>
@@ -7981,7 +7985,7 @@
     <row r="63" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="80" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C63" s="55"/>
       <c r="D63" s="20"/>
@@ -8057,7 +8061,7 @@
     <row r="64" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
       <c r="B64" s="80" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="20"/>
@@ -8133,7 +8137,7 @@
     <row r="65" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
       <c r="B65" s="80" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="20"/>
@@ -8209,7 +8213,7 @@
     <row r="66" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="42"/>
       <c r="B66" s="80" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="20"/>
@@ -8288,7 +8292,7 @@
     <row r="67" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
       <c r="B67" s="80" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C67" s="55"/>
       <c r="D67" s="20"/>
@@ -8367,7 +8371,7 @@
     <row r="68" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
       <c r="B68" s="80" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C68" s="55"/>
       <c r="D68" s="20"/>
@@ -8446,7 +8450,7 @@
     <row r="69" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="80" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="20"/>
@@ -8525,7 +8529,7 @@
     <row r="70" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45"/>
       <c r="B70" s="80" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C70" s="55"/>
       <c r="D70" s="20"/>
@@ -8604,7 +8608,7 @@
     <row r="71" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45"/>
       <c r="B71" s="80" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C71" s="55"/>
       <c r="D71" s="20"/>
@@ -8683,7 +8687,7 @@
     <row r="72" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45"/>
       <c r="B72" s="80" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="20"/>
@@ -8762,7 +8766,7 @@
     <row r="73" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="45"/>
       <c r="B73" s="80" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="20"/>
@@ -8838,7 +8842,7 @@
     <row r="74" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="45"/>
       <c r="B74" s="80" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C74" s="55"/>
       <c r="D74" s="20"/>
@@ -8914,7 +8918,7 @@
     <row r="75" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="45"/>
       <c r="B75" s="80" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C75" s="55"/>
       <c r="D75" s="20"/>
@@ -8990,7 +8994,7 @@
     <row r="76" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="45"/>
       <c r="B76" s="80" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C76" s="55"/>
       <c r="D76" s="20"/>
@@ -9066,7 +9070,7 @@
     <row r="77" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="45"/>
       <c r="B77" s="80" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="20"/>
@@ -9142,7 +9146,7 @@
     <row r="78" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="45"/>
       <c r="B78" s="80" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="20"/>
@@ -9218,7 +9222,7 @@
     <row r="79" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="45"/>
       <c r="B79" s="80" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C79" s="55"/>
       <c r="D79" s="20"/>
@@ -9294,7 +9298,7 @@
     <row r="80" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="45"/>
       <c r="B80" s="80" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C80" s="55"/>
       <c r="D80" s="20"/>
@@ -9370,7 +9374,7 @@
     <row r="81" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="45"/>
       <c r="B81" s="80" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C81" s="55"/>
       <c r="D81" s="20"/>
@@ -9446,7 +9450,7 @@
     <row r="82" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="45"/>
       <c r="B82" s="80" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C82" s="55"/>
       <c r="D82" s="20"/>
@@ -9522,7 +9526,7 @@
     <row r="83" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="45"/>
       <c r="B83" s="80" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C83" s="55"/>
       <c r="D83" s="20"/>
@@ -9596,7 +9600,7 @@
     <row r="84" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="45"/>
       <c r="B84" s="80" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C84" s="55"/>
       <c r="D84" s="20"/>
@@ -9672,7 +9676,7 @@
     <row r="85" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="45"/>
       <c r="B85" s="80" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C85" s="55"/>
       <c r="D85" s="20"/>
@@ -9748,7 +9752,7 @@
     <row r="86" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="45"/>
       <c r="B86" s="80" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="20"/>
@@ -9826,10 +9830,10 @@
         <v>11</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="75"/>
@@ -9899,7 +9903,7 @@
     <row r="88" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="45"/>
       <c r="B88" s="81" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C88" s="56"/>
       <c r="D88" s="23">
@@ -9976,7 +9980,7 @@
     <row r="89" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="45"/>
       <c r="B89" s="81" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C89" s="56"/>
       <c r="D89" s="23"/>
@@ -9985,7 +9989,7 @@
         <v>43836</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" ref="F89:F94" si="17">E89+G89</f>
+        <f t="shared" ref="F89:F95" si="17">E89+G89</f>
         <v>43841</v>
       </c>
       <c r="G89" s="16">
@@ -10052,7 +10056,7 @@
     <row r="90" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="45"/>
       <c r="B90" s="81" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C90" s="56"/>
       <c r="D90" s="23"/>
@@ -10128,7 +10132,7 @@
     <row r="91" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="45"/>
       <c r="B91" s="81" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C91" s="56"/>
       <c r="D91" s="23"/>
@@ -10204,7 +10208,7 @@
     <row r="92" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="45"/>
       <c r="B92" s="81" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C92" s="56"/>
       <c r="D92" s="23"/>
@@ -10282,7 +10286,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C93" s="57"/>
       <c r="D93" s="25"/>
@@ -10353,11 +10357,11 @@
     <row r="94" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="45"/>
       <c r="B94" s="94" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C94" s="58"/>
       <c r="D94" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E94" s="4">
         <v>43832</v>
@@ -10432,12 +10436,23 @@
     </row>
     <row r="95" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="45"/>
-      <c r="B95" s="94"/>
+      <c r="B95" s="94" t="s">
+        <v>131</v>
+      </c>
       <c r="C95" s="58"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="16"/>
+      <c r="D95" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="E95" s="4">
+        <v>43836</v>
+      </c>
+      <c r="F95" s="4">
+        <f t="shared" si="17"/>
+        <v>43856</v>
+      </c>
+      <c r="G95" s="16">
+        <v>20</v>
+      </c>
       <c r="H95" s="16"/>
       <c r="I95" s="51"/>
       <c r="J95" s="51"/>
@@ -10501,7 +10516,7 @@
         <v>11</v>
       </c>
       <c r="B96" s="88" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C96" s="83"/>
       <c r="D96" s="84"/>
@@ -11277,6 +11292,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -11284,15 +11304,10 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D105:D106 D87:D95 D19 D7:D11">
-    <cfRule type="dataBar" priority="189">
+  <conditionalFormatting sqref="D105:D106 D87:D94 D19 D7:D11">
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11306,20 +11321,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL11 I105:BL106 I87:BL95 I19:BL19">
-    <cfRule type="expression" dxfId="74" priority="208">
+    <cfRule type="expression" dxfId="74" priority="210">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL11 I105:BL106 I87:BL95 I19:BL19">
-    <cfRule type="expression" dxfId="73" priority="202">
+    <cfRule type="expression" dxfId="73" priority="204">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="205" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:D100 D104">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11333,20 +11348,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:BL100 I104:BL104">
-    <cfRule type="expression" dxfId="71" priority="155">
+    <cfRule type="expression" dxfId="71" priority="157">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:BL100 I104:BL104">
-    <cfRule type="expression" dxfId="70" priority="153">
+    <cfRule type="expression" dxfId="70" priority="155">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="dataBar" priority="148">
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11360,20 +11375,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:BL101">
-    <cfRule type="expression" dxfId="68" priority="151">
+    <cfRule type="expression" dxfId="68" priority="153">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:BL101">
-    <cfRule type="expression" dxfId="67" priority="149">
+    <cfRule type="expression" dxfId="67" priority="151">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="152" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="dataBar" priority="144">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11387,20 +11402,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102:BL102">
-    <cfRule type="expression" dxfId="65" priority="147">
+    <cfRule type="expression" dxfId="65" priority="149">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102:BL102">
-    <cfRule type="expression" dxfId="64" priority="145">
+    <cfRule type="expression" dxfId="64" priority="147">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="148" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="dataBar" priority="140">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11414,20 +11429,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:BL103">
-    <cfRule type="expression" dxfId="62" priority="143">
+    <cfRule type="expression" dxfId="62" priority="145">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:BL103">
-    <cfRule type="expression" dxfId="61" priority="141">
+    <cfRule type="expression" dxfId="61" priority="143">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="144" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="dataBar" priority="80">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11441,20 +11456,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL13 I18:BL18">
-    <cfRule type="expression" dxfId="59" priority="83">
+    <cfRule type="expression" dxfId="59" priority="85">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL13 I18:BL18">
-    <cfRule type="expression" dxfId="58" priority="81">
+    <cfRule type="expression" dxfId="58" priority="83">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="84" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11468,59 +11483,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="56" priority="79">
+    <cfRule type="expression" dxfId="56" priority="81">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="55" priority="77">
+    <cfRule type="expression" dxfId="55" priority="79">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="53" priority="75">
+    <cfRule type="expression" dxfId="53" priority="77">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="52" priority="73">
+    <cfRule type="expression" dxfId="52" priority="75">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="76" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="50" priority="71">
+    <cfRule type="expression" dxfId="50" priority="73">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="49" priority="69">
+    <cfRule type="expression" dxfId="49" priority="71">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="47" priority="67">
+    <cfRule type="expression" dxfId="47" priority="69">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="46" priority="65">
+    <cfRule type="expression" dxfId="46" priority="67">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D18">
-    <cfRule type="dataBar" priority="63">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11534,7 +11549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D24">
-    <cfRule type="dataBar" priority="59">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11548,33 +11563,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BL23">
-    <cfRule type="expression" dxfId="44" priority="62">
+    <cfRule type="expression" dxfId="44" priority="64">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BL23">
-    <cfRule type="expression" dxfId="43" priority="60">
+    <cfRule type="expression" dxfId="43" priority="62">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="41" priority="58">
+    <cfRule type="expression" dxfId="41" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="40" priority="56">
+    <cfRule type="expression" dxfId="40" priority="58">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11588,20 +11603,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="38" priority="54">
+    <cfRule type="expression" dxfId="38" priority="56">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="37" priority="52">
+    <cfRule type="expression" dxfId="37" priority="54">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="55" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D36 D86">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11615,33 +11630,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL36 I86:BL86">
-    <cfRule type="expression" dxfId="35" priority="50">
+    <cfRule type="expression" dxfId="35" priority="52">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL36 I86:BL86">
-    <cfRule type="expression" dxfId="34" priority="48">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL40">
-    <cfRule type="expression" dxfId="32" priority="46">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL40">
-    <cfRule type="expression" dxfId="31" priority="44">
+    <cfRule type="expression" dxfId="31" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11655,20 +11670,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="29" priority="42">
+    <cfRule type="expression" dxfId="29" priority="44">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="28" priority="40">
+    <cfRule type="expression" dxfId="28" priority="42">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11682,20 +11697,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="26" priority="38">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="25" priority="36">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D53">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11709,20 +11724,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL54">
-    <cfRule type="expression" dxfId="23" priority="34">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL54">
-    <cfRule type="expression" dxfId="22" priority="32">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11736,7 +11751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:D69">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11750,7 +11765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D65">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11764,33 +11779,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL65">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL65">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:BL69">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="17" priority="27">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:BL69">
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11804,20 +11819,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:BL70">
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:BL70">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11831,20 +11846,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:BL71">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:BL71">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:D82">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11858,20 +11873,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:BL83">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:BL83">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11885,7 +11900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11899,20 +11914,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84:BL84">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84:BL84">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11926,16 +11941,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:BL85">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:BL85">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A188CC6-F6F9-4C9E-8385-875C59106CD7}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -11965,7 +11994,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D105:D106 D87:D95 D19 D7:D11</xm:sqref>
+          <xm:sqref>D105:D106 D87:D94 D19 D7:D11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D2687AE-507A-4594-B59D-CE6E951D3C0B}">
@@ -12297,6 +12326,21 @@
           </x14:cfRule>
           <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A188CC6-F6F9-4C9E-8385-875C59106CD7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D95</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/2020schedule.xlsx
+++ b/2020schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C815D1-540C-407A-AE06-52CCB5AA08E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目日程安排" sheetId="11" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="task_start" localSheetId="0">项目日程安排!$E1</definedName>
     <definedName name="今天" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -536,7 +538,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1620,6 +1622,13 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1632,13 +1641,6 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1659,7 +1661,7 @@
     <cellStyle name="60% - 着色 4" xfId="45" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="49" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="53" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="z隐藏文本" xfId="3"/>
+    <cellStyle name="z隐藏文本" xfId="3" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="百分比" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="标题" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="6" builtinId="16" customBuiltin="1"/>
@@ -1680,13 +1682,13 @@
     <cellStyle name="链接单元格" xfId="24" builtinId="24" customBuiltin="1"/>
     <cellStyle name="千位分隔" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="千位分隔[0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="任务" xfId="12"/>
-    <cellStyle name="日期" xfId="10"/>
+    <cellStyle name="任务" xfId="12" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="日期" xfId="10" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="适中" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="项目开始" xfId="9"/>
-    <cellStyle name="姓名" xfId="11"/>
+    <cellStyle name="项目开始" xfId="9" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="姓名" xfId="11" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="30" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="34" builtinId="33" customBuiltin="1"/>
@@ -2564,11 +2566,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="85"/>
       <tableStyleElement type="headerRow" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="待办事项列表" pivot="0" count="9">
+    <tableStyle name="待办事项列表" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="83"/>
       <tableStyleElement type="headerRow" dxfId="82"/>
       <tableStyleElement type="totalRow" dxfId="81"/>
@@ -2988,35 +2990,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" style="44" customWidth="1"/>
-    <col min="8" max="8" width="3.21875" style="44" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.6640625" style="44" customWidth="1"/>
-    <col min="65" max="65" width="8.88671875" style="44"/>
-    <col min="66" max="68" width="7.33203125" style="44"/>
-    <col min="69" max="70" width="8.6640625" style="44"/>
-    <col min="71" max="16384" width="8.88671875" style="44"/>
+    <col min="1" max="1" width="2.81640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="3.1796875" style="44" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.6328125" style="44" customWidth="1"/>
+    <col min="65" max="65" width="8.90625" style="44"/>
+    <col min="66" max="68" width="7.36328125" style="44"/>
+    <col min="69" max="70" width="8.6328125" style="44"/>
+    <col min="71" max="16384" width="8.90625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -3030,129 +3032,129 @@
       <c r="H1" s="6"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="46"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="98">
+      <c r="D3" s="96"/>
+      <c r="E3" s="101">
         <v>43832</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="101"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="98">
         <f>I5</f>
         <v>43828</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
         <f>P5</f>
         <v>43835</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
         <f>W5</f>
         <v>43842</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
         <f>AD5</f>
         <v>43849</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
         <f>AK5</f>
         <v>43856</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
         <f>AR5</f>
         <v>43863</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
         <f>AY5</f>
         <v>43870</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
         <f>BF5</f>
         <v>43877</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="I5" s="68">
         <f>Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>43828</v>
@@ -3378,7 +3380,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3630,7 @@
         <v>六</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="BK7" s="51"/>
       <c r="BL7" s="51"/>
     </row>
-    <row r="8" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
@@ -3770,7 +3772,7 @@
       <c r="BK8" s="51"/>
       <c r="BL8" s="51"/>
     </row>
-    <row r="9" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
@@ -3852,7 +3854,7 @@
       <c r="BK9" s="51"/>
       <c r="BL9" s="51"/>
     </row>
-    <row r="10" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
@@ -3935,7 +3937,7 @@
       <c r="BK10" s="51"/>
       <c r="BL10" s="51"/>
     </row>
-    <row r="11" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45"/>
       <c r="B11" s="79" t="s">
         <v>123</v>
@@ -4016,7 +4018,7 @@
       <c r="BK11" s="51"/>
       <c r="BL11" s="51"/>
     </row>
-    <row r="12" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="42" t="s">
         <v>8</v>
       </c>
@@ -4099,7 +4101,7 @@
       <c r="BK12" s="51"/>
       <c r="BL12" s="51"/>
     </row>
-    <row r="13" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="42" t="s">
         <v>9</v>
       </c>
@@ -4182,7 +4184,7 @@
       <c r="BK13" s="51"/>
       <c r="BL13" s="51"/>
     </row>
-    <row r="14" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="45"/>
       <c r="B14" s="79" t="s">
         <v>126</v>
@@ -4263,7 +4265,7 @@
       <c r="BK14" s="51"/>
       <c r="BL14" s="51"/>
     </row>
-    <row r="15" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45"/>
       <c r="B15" s="79" t="s">
         <v>127</v>
@@ -4344,7 +4346,7 @@
       <c r="BK15" s="51"/>
       <c r="BL15" s="51"/>
     </row>
-    <row r="16" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45"/>
       <c r="B16" s="79" t="s">
         <v>128</v>
@@ -4425,7 +4427,7 @@
       <c r="BK16" s="51"/>
       <c r="BL16" s="51"/>
     </row>
-    <row r="17" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="45"/>
       <c r="B17" s="79" t="s">
         <v>129</v>
@@ -4506,7 +4508,7 @@
       <c r="BK17" s="51"/>
       <c r="BL17" s="51"/>
     </row>
-    <row r="18" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="45"/>
       <c r="B18" s="79" t="s">
         <v>130</v>
@@ -4587,7 +4589,7 @@
       <c r="BK18" s="51"/>
       <c r="BL18" s="51"/>
     </row>
-    <row r="19" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="42" t="s">
         <v>10</v>
       </c>
@@ -4662,7 +4664,7 @@
       <c r="BK19" s="51"/>
       <c r="BL19" s="51"/>
     </row>
-    <row r="20" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="42"/>
       <c r="B20" s="80" t="s">
         <v>55</v>
@@ -4742,7 +4744,7 @@
       <c r="BK20" s="51"/>
       <c r="BL20" s="51"/>
     </row>
-    <row r="21" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="45"/>
       <c r="B21" s="80" t="s">
         <v>56</v>
@@ -4823,7 +4825,7 @@
       <c r="BK21" s="51"/>
       <c r="BL21" s="51"/>
     </row>
-    <row r="22" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="45"/>
       <c r="B22" s="80" t="s">
         <v>57</v>
@@ -4904,7 +4906,7 @@
       <c r="BK22" s="51"/>
       <c r="BL22" s="51"/>
     </row>
-    <row r="23" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="45"/>
       <c r="B23" s="80" t="s">
         <v>58</v>
@@ -4985,7 +4987,7 @@
       <c r="BK23" s="51"/>
       <c r="BL23" s="51"/>
     </row>
-    <row r="24" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="45"/>
       <c r="B24" s="80" t="s">
         <v>54</v>
@@ -5066,13 +5068,15 @@
       <c r="BK24" s="51"/>
       <c r="BL24" s="51"/>
     </row>
-    <row r="25" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="45"/>
       <c r="B25" s="80" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="55"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="20">
+        <v>1</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="12"/>
         <v>43860</v>
@@ -5145,7 +5149,7 @@
       <c r="BK25" s="51"/>
       <c r="BL25" s="51"/>
     </row>
-    <row r="26" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="45"/>
       <c r="B26" s="80" t="s">
         <v>94</v>
@@ -5224,7 +5228,7 @@
       <c r="BK26" s="51"/>
       <c r="BL26" s="51"/>
     </row>
-    <row r="27" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="45"/>
       <c r="B27" s="80" t="s">
         <v>95</v>
@@ -5300,7 +5304,7 @@
       <c r="BK27" s="51"/>
       <c r="BL27" s="51"/>
     </row>
-    <row r="28" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="45"/>
       <c r="B28" s="80" t="s">
         <v>96</v>
@@ -5376,7 +5380,7 @@
       <c r="BK28" s="51"/>
       <c r="BL28" s="51"/>
     </row>
-    <row r="29" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="45"/>
       <c r="B29" s="80" t="s">
         <v>97</v>
@@ -5452,7 +5456,7 @@
       <c r="BK29" s="51"/>
       <c r="BL29" s="51"/>
     </row>
-    <row r="30" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="45"/>
       <c r="B30" s="80" t="s">
         <v>98</v>
@@ -5528,7 +5532,7 @@
       <c r="BK30" s="51"/>
       <c r="BL30" s="51"/>
     </row>
-    <row r="31" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="45"/>
       <c r="B31" s="80" t="s">
         <v>99</v>
@@ -5604,7 +5608,7 @@
       <c r="BK31" s="51"/>
       <c r="BL31" s="51"/>
     </row>
-    <row r="32" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="45"/>
       <c r="B32" s="80" t="s">
         <v>100</v>
@@ -5680,7 +5684,7 @@
       <c r="BK32" s="51"/>
       <c r="BL32" s="51"/>
     </row>
-    <row r="33" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="45"/>
       <c r="B33" s="80" t="s">
         <v>101</v>
@@ -5756,7 +5760,7 @@
       <c r="BK33" s="51"/>
       <c r="BL33" s="51"/>
     </row>
-    <row r="34" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="45"/>
       <c r="B34" s="80" t="s">
         <v>102</v>
@@ -5832,7 +5836,7 @@
       <c r="BK34" s="51"/>
       <c r="BL34" s="51"/>
     </row>
-    <row r="35" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="45"/>
       <c r="B35" s="80" t="s">
         <v>103</v>
@@ -5908,7 +5912,7 @@
       <c r="BK35" s="51"/>
       <c r="BL35" s="51"/>
     </row>
-    <row r="36" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="45"/>
       <c r="B36" s="80" t="s">
         <v>104</v>
@@ -5984,7 +5988,7 @@
       <c r="BK36" s="51"/>
       <c r="BL36" s="51"/>
     </row>
-    <row r="37" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="42"/>
       <c r="B37" s="80" t="s">
         <v>105</v>
@@ -6063,7 +6067,7 @@
       <c r="BK37" s="51"/>
       <c r="BL37" s="51"/>
     </row>
-    <row r="38" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="45"/>
       <c r="B38" s="80" t="s">
         <v>106</v>
@@ -6142,7 +6146,7 @@
       <c r="BK38" s="51"/>
       <c r="BL38" s="51"/>
     </row>
-    <row r="39" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="45"/>
       <c r="B39" s="80" t="s">
         <v>107</v>
@@ -6221,7 +6225,7 @@
       <c r="BK39" s="51"/>
       <c r="BL39" s="51"/>
     </row>
-    <row r="40" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="45"/>
       <c r="B40" s="80" t="s">
         <v>108</v>
@@ -6300,7 +6304,7 @@
       <c r="BK40" s="51"/>
       <c r="BL40" s="51"/>
     </row>
-    <row r="41" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="45"/>
       <c r="B41" s="80" t="s">
         <v>109</v>
@@ -6379,7 +6383,7 @@
       <c r="BK41" s="51"/>
       <c r="BL41" s="51"/>
     </row>
-    <row r="42" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="45"/>
       <c r="B42" s="80" t="s">
         <v>110</v>
@@ -6458,7 +6462,7 @@
       <c r="BK42" s="51"/>
       <c r="BL42" s="51"/>
     </row>
-    <row r="43" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="45"/>
       <c r="B43" s="80" t="s">
         <v>111</v>
@@ -6537,7 +6541,7 @@
       <c r="BK43" s="51"/>
       <c r="BL43" s="51"/>
     </row>
-    <row r="44" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="45"/>
       <c r="B44" s="80" t="s">
         <v>112</v>
@@ -6613,7 +6617,7 @@
       <c r="BK44" s="51"/>
       <c r="BL44" s="51"/>
     </row>
-    <row r="45" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="45"/>
       <c r="B45" s="80" t="s">
         <v>113</v>
@@ -6689,7 +6693,7 @@
       <c r="BK45" s="51"/>
       <c r="BL45" s="51"/>
     </row>
-    <row r="46" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="45"/>
       <c r="B46" s="80" t="s">
         <v>114</v>
@@ -6765,7 +6769,7 @@
       <c r="BK46" s="51"/>
       <c r="BL46" s="51"/>
     </row>
-    <row r="47" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="45"/>
       <c r="B47" s="80" t="s">
         <v>115</v>
@@ -6841,7 +6845,7 @@
       <c r="BK47" s="51"/>
       <c r="BL47" s="51"/>
     </row>
-    <row r="48" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="45"/>
       <c r="B48" s="80" t="s">
         <v>116</v>
@@ -6917,7 +6921,7 @@
       <c r="BK48" s="51"/>
       <c r="BL48" s="51"/>
     </row>
-    <row r="49" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="45"/>
       <c r="B49" s="80" t="s">
         <v>117</v>
@@ -6993,7 +6997,7 @@
       <c r="BK49" s="51"/>
       <c r="BL49" s="51"/>
     </row>
-    <row r="50" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="45"/>
       <c r="B50" s="80" t="s">
         <v>118</v>
@@ -7069,7 +7073,7 @@
       <c r="BK50" s="51"/>
       <c r="BL50" s="51"/>
     </row>
-    <row r="51" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="45"/>
       <c r="B51" s="80" t="s">
         <v>119</v>
@@ -7145,7 +7149,7 @@
       <c r="BK51" s="51"/>
       <c r="BL51" s="51"/>
     </row>
-    <row r="52" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="45"/>
       <c r="B52" s="80" t="s">
         <v>120</v>
@@ -7221,7 +7225,7 @@
       <c r="BK52" s="51"/>
       <c r="BL52" s="51"/>
     </row>
-    <row r="53" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="45"/>
       <c r="B53" s="80" t="s">
         <v>59</v>
@@ -7297,7 +7301,7 @@
       <c r="BK53" s="51"/>
       <c r="BL53" s="51"/>
     </row>
-    <row r="54" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="45"/>
       <c r="B54" s="80" t="s">
         <v>60</v>
@@ -7371,7 +7375,7 @@
       <c r="BK54" s="51"/>
       <c r="BL54" s="51"/>
     </row>
-    <row r="55" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="45"/>
       <c r="B55" s="80" t="s">
         <v>61</v>
@@ -7450,7 +7454,7 @@
       <c r="BK55" s="51"/>
       <c r="BL55" s="51"/>
     </row>
-    <row r="56" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="45"/>
       <c r="B56" s="80" t="s">
         <v>62</v>
@@ -7526,7 +7530,7 @@
       <c r="BK56" s="51"/>
       <c r="BL56" s="51"/>
     </row>
-    <row r="57" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="45"/>
       <c r="B57" s="80" t="s">
         <v>63</v>
@@ -7602,7 +7606,7 @@
       <c r="BK57" s="51"/>
       <c r="BL57" s="51"/>
     </row>
-    <row r="58" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="45"/>
       <c r="B58" s="80" t="s">
         <v>64</v>
@@ -7678,7 +7682,7 @@
       <c r="BK58" s="51"/>
       <c r="BL58" s="51"/>
     </row>
-    <row r="59" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="45"/>
       <c r="B59" s="80" t="s">
         <v>65</v>
@@ -7754,7 +7758,7 @@
       <c r="BK59" s="51"/>
       <c r="BL59" s="51"/>
     </row>
-    <row r="60" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="45"/>
       <c r="B60" s="80" t="s">
         <v>66</v>
@@ -7830,7 +7834,7 @@
       <c r="BK60" s="51"/>
       <c r="BL60" s="51"/>
     </row>
-    <row r="61" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="45"/>
       <c r="B61" s="80" t="s">
         <v>67</v>
@@ -7906,7 +7910,7 @@
       <c r="BK61" s="51"/>
       <c r="BL61" s="51"/>
     </row>
-    <row r="62" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="45"/>
       <c r="B62" s="80" t="s">
         <v>68</v>
@@ -7982,7 +7986,7 @@
       <c r="BK62" s="51"/>
       <c r="BL62" s="51"/>
     </row>
-    <row r="63" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="45"/>
       <c r="B63" s="80" t="s">
         <v>69</v>
@@ -8058,7 +8062,7 @@
       <c r="BK63" s="51"/>
       <c r="BL63" s="51"/>
     </row>
-    <row r="64" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="45"/>
       <c r="B64" s="80" t="s">
         <v>70</v>
@@ -8134,7 +8138,7 @@
       <c r="BK64" s="51"/>
       <c r="BL64" s="51"/>
     </row>
-    <row r="65" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="45"/>
       <c r="B65" s="80" t="s">
         <v>71</v>
@@ -8210,7 +8214,7 @@
       <c r="BK65" s="51"/>
       <c r="BL65" s="51"/>
     </row>
-    <row r="66" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="42"/>
       <c r="B66" s="80" t="s">
         <v>72</v>
@@ -8289,7 +8293,7 @@
       <c r="BK66" s="51"/>
       <c r="BL66" s="51"/>
     </row>
-    <row r="67" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="45"/>
       <c r="B67" s="80" t="s">
         <v>73</v>
@@ -8368,7 +8372,7 @@
       <c r="BK67" s="51"/>
       <c r="BL67" s="51"/>
     </row>
-    <row r="68" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="45"/>
       <c r="B68" s="80" t="s">
         <v>74</v>
@@ -8447,7 +8451,7 @@
       <c r="BK68" s="51"/>
       <c r="BL68" s="51"/>
     </row>
-    <row r="69" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="45"/>
       <c r="B69" s="80" t="s">
         <v>75</v>
@@ -8526,7 +8530,7 @@
       <c r="BK69" s="51"/>
       <c r="BL69" s="51"/>
     </row>
-    <row r="70" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="45"/>
       <c r="B70" s="80" t="s">
         <v>76</v>
@@ -8605,7 +8609,7 @@
       <c r="BK70" s="51"/>
       <c r="BL70" s="51"/>
     </row>
-    <row r="71" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="45"/>
       <c r="B71" s="80" t="s">
         <v>77</v>
@@ -8684,7 +8688,7 @@
       <c r="BK71" s="51"/>
       <c r="BL71" s="51"/>
     </row>
-    <row r="72" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="45"/>
       <c r="B72" s="80" t="s">
         <v>78</v>
@@ -8763,7 +8767,7 @@
       <c r="BK72" s="51"/>
       <c r="BL72" s="51"/>
     </row>
-    <row r="73" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="45"/>
       <c r="B73" s="80" t="s">
         <v>79</v>
@@ -8839,7 +8843,7 @@
       <c r="BK73" s="51"/>
       <c r="BL73" s="51"/>
     </row>
-    <row r="74" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="45"/>
       <c r="B74" s="80" t="s">
         <v>80</v>
@@ -8915,7 +8919,7 @@
       <c r="BK74" s="51"/>
       <c r="BL74" s="51"/>
     </row>
-    <row r="75" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="45"/>
       <c r="B75" s="80" t="s">
         <v>81</v>
@@ -8991,7 +8995,7 @@
       <c r="BK75" s="51"/>
       <c r="BL75" s="51"/>
     </row>
-    <row r="76" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="45"/>
       <c r="B76" s="80" t="s">
         <v>82</v>
@@ -9067,7 +9071,7 @@
       <c r="BK76" s="51"/>
       <c r="BL76" s="51"/>
     </row>
-    <row r="77" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="45"/>
       <c r="B77" s="80" t="s">
         <v>83</v>
@@ -9143,7 +9147,7 @@
       <c r="BK77" s="51"/>
       <c r="BL77" s="51"/>
     </row>
-    <row r="78" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="45"/>
       <c r="B78" s="80" t="s">
         <v>84</v>
@@ -9219,7 +9223,7 @@
       <c r="BK78" s="51"/>
       <c r="BL78" s="51"/>
     </row>
-    <row r="79" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="45"/>
       <c r="B79" s="80" t="s">
         <v>85</v>
@@ -9295,7 +9299,7 @@
       <c r="BK79" s="51"/>
       <c r="BL79" s="51"/>
     </row>
-    <row r="80" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="45"/>
       <c r="B80" s="80" t="s">
         <v>86</v>
@@ -9371,7 +9375,7 @@
       <c r="BK80" s="51"/>
       <c r="BL80" s="51"/>
     </row>
-    <row r="81" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="45"/>
       <c r="B81" s="80" t="s">
         <v>87</v>
@@ -9447,7 +9451,7 @@
       <c r="BK81" s="51"/>
       <c r="BL81" s="51"/>
     </row>
-    <row r="82" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="45"/>
       <c r="B82" s="80" t="s">
         <v>88</v>
@@ -9523,7 +9527,7 @@
       <c r="BK82" s="51"/>
       <c r="BL82" s="51"/>
     </row>
-    <row r="83" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="45"/>
       <c r="B83" s="80" t="s">
         <v>89</v>
@@ -9597,7 +9601,7 @@
       <c r="BK83" s="51"/>
       <c r="BL83" s="51"/>
     </row>
-    <row r="84" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="45"/>
       <c r="B84" s="80" t="s">
         <v>90</v>
@@ -9673,7 +9677,7 @@
       <c r="BK84" s="51"/>
       <c r="BL84" s="51"/>
     </row>
-    <row r="85" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="45"/>
       <c r="B85" s="80" t="s">
         <v>91</v>
@@ -9749,7 +9753,7 @@
       <c r="BK85" s="51"/>
       <c r="BL85" s="51"/>
     </row>
-    <row r="86" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="45"/>
       <c r="B86" s="80" t="s">
         <v>92</v>
@@ -9825,7 +9829,7 @@
       <c r="BK86" s="51"/>
       <c r="BL86" s="51"/>
     </row>
-    <row r="87" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="45" t="s">
         <v>11</v>
       </c>
@@ -9900,7 +9904,7 @@
       <c r="BK87" s="51"/>
       <c r="BL87" s="51"/>
     </row>
-    <row r="88" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="45"/>
       <c r="B88" s="81" t="s">
         <v>49</v>
@@ -9977,7 +9981,7 @@
       <c r="BK88" s="51"/>
       <c r="BL88" s="51"/>
     </row>
-    <row r="89" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="45"/>
       <c r="B89" s="81" t="s">
         <v>50</v>
@@ -10053,7 +10057,7 @@
       <c r="BK89" s="51"/>
       <c r="BL89" s="51"/>
     </row>
-    <row r="90" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="45"/>
       <c r="B90" s="81" t="s">
         <v>51</v>
@@ -10129,7 +10133,7 @@
       <c r="BK90" s="51"/>
       <c r="BL90" s="51"/>
     </row>
-    <row r="91" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="45"/>
       <c r="B91" s="81" t="s">
         <v>52</v>
@@ -10205,7 +10209,7 @@
       <c r="BK91" s="51"/>
       <c r="BL91" s="51"/>
     </row>
-    <row r="92" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="45"/>
       <c r="B92" s="81" t="s">
         <v>53</v>
@@ -10281,7 +10285,7 @@
       <c r="BK92" s="51"/>
       <c r="BL92" s="51"/>
     </row>
-    <row r="93" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="45" t="s">
         <v>11</v>
       </c>
@@ -10354,7 +10358,7 @@
       <c r="BK93" s="51"/>
       <c r="BL93" s="51"/>
     </row>
-    <row r="94" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="45"/>
       <c r="B94" s="94" t="s">
         <v>47</v>
@@ -10434,14 +10438,14 @@
       <c r="BK94" s="51"/>
       <c r="BL94" s="51"/>
     </row>
-    <row r="95" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="45"/>
       <c r="B95" s="94" t="s">
         <v>131</v>
       </c>
       <c r="C95" s="58"/>
       <c r="D95" s="25">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E95" s="4">
         <v>43836</v>
@@ -10511,7 +10515,7 @@
       <c r="BK95" s="51"/>
       <c r="BL95" s="51"/>
     </row>
-    <row r="96" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="45" t="s">
         <v>11</v>
       </c>
@@ -10584,7 +10588,7 @@
       <c r="BK96" s="51"/>
       <c r="BL96" s="51"/>
     </row>
-    <row r="97" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="45"/>
       <c r="B97" s="85"/>
       <c r="C97" s="86"/>
@@ -10653,7 +10657,7 @@
       <c r="BK97" s="51"/>
       <c r="BL97" s="51"/>
     </row>
-    <row r="98" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="45"/>
       <c r="B98" s="85"/>
       <c r="C98" s="86"/>
@@ -10722,7 +10726,7 @@
       <c r="BK98" s="51"/>
       <c r="BL98" s="51"/>
     </row>
-    <row r="99" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="45"/>
       <c r="B99" s="85"/>
       <c r="C99" s="86"/>
@@ -10791,7 +10795,7 @@
       <c r="BK99" s="51"/>
       <c r="BL99" s="51"/>
     </row>
-    <row r="100" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="45"/>
       <c r="B100" s="85"/>
       <c r="C100" s="86"/>
@@ -10860,7 +10864,7 @@
       <c r="BK100" s="51"/>
       <c r="BL100" s="51"/>
     </row>
-    <row r="101" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="45"/>
       <c r="B101" s="85"/>
       <c r="C101" s="86"/>
@@ -10929,7 +10933,7 @@
       <c r="BK101" s="51"/>
       <c r="BL101" s="51"/>
     </row>
-    <row r="102" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="45"/>
       <c r="B102" s="85"/>
       <c r="C102" s="86"/>
@@ -10998,7 +11002,7 @@
       <c r="BK102" s="51"/>
       <c r="BL102" s="51"/>
     </row>
-    <row r="103" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="45"/>
       <c r="B103" s="85"/>
       <c r="C103" s="86"/>
@@ -11067,7 +11071,7 @@
       <c r="BK103" s="51"/>
       <c r="BL103" s="51"/>
     </row>
-    <row r="104" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="45"/>
       <c r="B104" s="85"/>
       <c r="C104" s="86"/>
@@ -11136,7 +11140,7 @@
       <c r="BK104" s="51"/>
       <c r="BL104" s="51"/>
     </row>
-    <row r="105" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="45" t="s">
         <v>12</v>
       </c>
@@ -11207,7 +11211,7 @@
       <c r="BK105" s="51"/>
       <c r="BL105" s="51"/>
     </row>
-    <row r="106" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="42" t="s">
         <v>13</v>
       </c>
@@ -11280,23 +11284,18 @@
       <c r="BK106" s="62"/>
       <c r="BL106" s="62"/>
     </row>
-    <row r="107" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G107" s="63"/>
     </row>
-    <row r="108" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C108" s="9"/>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C109" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -11304,6 +11303,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D105:D106 D87:D94 D19 D7:D11">
@@ -11968,7 +11972,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -12348,7 +12352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12356,86 +12360,86 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="87.21875" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="6"/>
+    <col min="1" max="1" width="87.1796875" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:2" s="64" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="37"/>
     </row>
-    <row r="3" spans="1:2" s="65" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="65" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="38"/>
     </row>
-    <row r="4" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="36" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="36" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="36" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="67" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="36" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="67" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
         <v>37</v>
       </c>
@@ -12443,10 +12447,10 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>

--- a/2020schedule.xlsx
+++ b/2020schedule.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>在此工作表中创建项目日程安排。
 在单元格 B1 中输入此项目的标题。
@@ -195,10 +195,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>2019 日程表</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>专业技能</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -530,6 +526,14 @@
   </si>
   <si>
     <t>穷查理宝典</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务001： 自然语言处理训练营</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 日程表</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1696,7 +1700,37 @@
     <cellStyle name="着色 6" xfId="50" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="27" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="89">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2565,19 +2599,19 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="85"/>
-      <tableStyleElement type="headerRow" dxfId="84"/>
+      <tableStyleElement type="wholeTable" dxfId="88"/>
+      <tableStyleElement type="headerRow" dxfId="87"/>
     </tableStyle>
     <tableStyle name="待办事项列表" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="83"/>
-      <tableStyleElement type="headerRow" dxfId="82"/>
-      <tableStyleElement type="totalRow" dxfId="81"/>
-      <tableStyleElement type="firstColumn" dxfId="80"/>
-      <tableStyleElement type="lastColumn" dxfId="79"/>
-      <tableStyleElement type="firstRowStripe" dxfId="78"/>
-      <tableStyleElement type="secondRowStripe" dxfId="77"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="76"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="75"/>
+      <tableStyleElement type="wholeTable" dxfId="86"/>
+      <tableStyleElement type="headerRow" dxfId="85"/>
+      <tableStyleElement type="totalRow" dxfId="84"/>
+      <tableStyleElement type="firstColumn" dxfId="83"/>
+      <tableStyleElement type="lastColumn" dxfId="82"/>
+      <tableStyleElement type="firstRowStripe" dxfId="81"/>
+      <tableStyleElement type="secondRowStripe" dxfId="80"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="79"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="78"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2992,11 +3026,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL109"/>
+  <dimension ref="A1:BL110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3021,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -3700,17 +3734,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="71"/>
       <c r="F8" s="72"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H106" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H107" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="51"/>
@@ -3775,7 +3809,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="17">
@@ -3857,7 +3891,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="17">
@@ -3938,7 +3972,7 @@
     <row r="11" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="17">
@@ -4021,7 +4055,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="17">
@@ -4104,7 +4138,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="17">
@@ -4185,7 +4219,7 @@
     <row r="14" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="17">
@@ -4266,7 +4300,7 @@
     <row r="15" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="17">
@@ -4347,7 +4381,7 @@
     <row r="16" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="17">
@@ -4428,7 +4462,7 @@
     <row r="17" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="17">
@@ -4509,7 +4543,7 @@
     <row r="18" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="17">
@@ -4592,10 +4626,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="91" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>42</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="73"/>
@@ -4665,7 +4699,7 @@
     <row r="20" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="20">
@@ -4745,7 +4779,7 @@
     <row r="21" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="20">
@@ -4826,7 +4860,7 @@
     <row r="22" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="20">
@@ -4907,7 +4941,7 @@
     <row r="23" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="20">
@@ -4988,7 +5022,7 @@
     <row r="24" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="20">
@@ -5069,10 +5103,12 @@
     <row r="25" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="55"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="20">
+        <v>1</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="12"/>
         <v>43860</v>
@@ -5148,10 +5184,12 @@
     <row r="26" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="55"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="20">
+        <v>1</v>
+      </c>
       <c r="E26" s="2">
         <f t="shared" si="12"/>
         <v>43866</v>
@@ -5227,10 +5265,12 @@
     <row r="27" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="55"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="20">
+        <v>1</v>
+      </c>
       <c r="E27" s="2">
         <f t="shared" si="12"/>
         <v>43872</v>
@@ -5303,10 +5343,12 @@
     <row r="28" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="B28" s="80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="55"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="20">
+        <v>1</v>
+      </c>
       <c r="E28" s="2">
         <f t="shared" si="12"/>
         <v>43878</v>
@@ -5379,10 +5421,12 @@
     <row r="29" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="55"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="20">
+        <v>1</v>
+      </c>
       <c r="E29" s="2">
         <f t="shared" si="12"/>
         <v>43884</v>
@@ -5455,10 +5499,12 @@
     <row r="30" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="55"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="20">
+        <v>1</v>
+      </c>
       <c r="E30" s="2">
         <f t="shared" si="12"/>
         <v>43890</v>
@@ -5531,10 +5577,12 @@
     <row r="31" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="55"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
       <c r="E31" s="2">
         <f t="shared" si="12"/>
         <v>43896</v>
@@ -5607,7 +5655,7 @@
     <row r="32" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="20"/>
@@ -5683,7 +5731,7 @@
     <row r="33" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="55"/>
       <c r="D33" s="20"/>
@@ -5759,7 +5807,7 @@
     <row r="34" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="55"/>
       <c r="D34" s="20"/>
@@ -5835,7 +5883,7 @@
     <row r="35" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="55"/>
       <c r="D35" s="20"/>
@@ -5911,7 +5959,7 @@
     <row r="36" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="20"/>
@@ -5987,7 +6035,7 @@
     <row r="37" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="20"/>
@@ -6066,7 +6114,7 @@
     <row r="38" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
       <c r="B38" s="80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="55"/>
       <c r="D38" s="20"/>
@@ -6145,7 +6193,7 @@
     <row r="39" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
       <c r="B39" s="80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="55"/>
       <c r="D39" s="20"/>
@@ -6224,7 +6272,7 @@
     <row r="40" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
       <c r="B40" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="20"/>
@@ -6303,7 +6351,7 @@
     <row r="41" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
       <c r="B41" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="20"/>
@@ -6382,7 +6430,7 @@
     <row r="42" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
       <c r="B42" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="20"/>
@@ -6461,7 +6509,7 @@
     <row r="43" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
       <c r="B43" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="20"/>
@@ -6540,7 +6588,7 @@
     <row r="44" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
       <c r="B44" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="20"/>
@@ -6616,7 +6664,7 @@
     <row r="45" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
       <c r="B45" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="20"/>
@@ -6692,7 +6740,7 @@
     <row r="46" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
       <c r="B46" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="20"/>
@@ -6768,7 +6816,7 @@
     <row r="47" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
       <c r="B47" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="20"/>
@@ -6844,7 +6892,7 @@
     <row r="48" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
       <c r="B48" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="20"/>
@@ -6920,7 +6968,7 @@
     <row r="49" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
       <c r="B49" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="20"/>
@@ -6996,7 +7044,7 @@
     <row r="50" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
       <c r="B50" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="20"/>
@@ -7072,7 +7120,7 @@
     <row r="51" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
       <c r="B51" s="80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="20"/>
@@ -7148,7 +7196,7 @@
     <row r="52" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="20"/>
@@ -7224,7 +7272,7 @@
     <row r="53" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
       <c r="B53" s="80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="20"/>
@@ -7300,7 +7348,7 @@
     <row r="54" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
       <c r="B54" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="20"/>
@@ -7374,7 +7422,7 @@
     <row r="55" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
       <c r="B55" s="80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="20"/>
@@ -7453,7 +7501,7 @@
     <row r="56" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45"/>
       <c r="B56" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="20"/>
@@ -7529,7 +7577,7 @@
     <row r="57" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
       <c r="B57" s="80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="20"/>
@@ -7605,7 +7653,7 @@
     <row r="58" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
       <c r="B58" s="80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="20"/>
@@ -7681,7 +7729,7 @@
     <row r="59" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
       <c r="B59" s="80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="20"/>
@@ -7757,7 +7805,7 @@
     <row r="60" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
       <c r="B60" s="80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="55"/>
       <c r="D60" s="20"/>
@@ -7833,7 +7881,7 @@
     <row r="61" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
       <c r="B61" s="80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="55"/>
       <c r="D61" s="20"/>
@@ -7909,7 +7957,7 @@
     <row r="62" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
       <c r="B62" s="80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="20"/>
@@ -7985,7 +8033,7 @@
     <row r="63" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="55"/>
       <c r="D63" s="20"/>
@@ -8061,7 +8109,7 @@
     <row r="64" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
       <c r="B64" s="80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="20"/>
@@ -8137,7 +8185,7 @@
     <row r="65" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
       <c r="B65" s="80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="20"/>
@@ -8213,7 +8261,7 @@
     <row r="66" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="42"/>
       <c r="B66" s="80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="20"/>
@@ -8292,7 +8340,7 @@
     <row r="67" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
       <c r="B67" s="80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="55"/>
       <c r="D67" s="20"/>
@@ -8371,7 +8419,7 @@
     <row r="68" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
       <c r="B68" s="80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="55"/>
       <c r="D68" s="20"/>
@@ -8450,7 +8498,7 @@
     <row r="69" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="20"/>
@@ -8529,7 +8577,7 @@
     <row r="70" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45"/>
       <c r="B70" s="80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="55"/>
       <c r="D70" s="20"/>
@@ -8608,7 +8656,7 @@
     <row r="71" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45"/>
       <c r="B71" s="80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="55"/>
       <c r="D71" s="20"/>
@@ -8687,7 +8735,7 @@
     <row r="72" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45"/>
       <c r="B72" s="80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="20"/>
@@ -8766,7 +8814,7 @@
     <row r="73" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="45"/>
       <c r="B73" s="80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="20"/>
@@ -8842,7 +8890,7 @@
     <row r="74" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="45"/>
       <c r="B74" s="80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" s="55"/>
       <c r="D74" s="20"/>
@@ -8918,7 +8966,7 @@
     <row r="75" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="45"/>
       <c r="B75" s="80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="55"/>
       <c r="D75" s="20"/>
@@ -8994,7 +9042,7 @@
     <row r="76" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="45"/>
       <c r="B76" s="80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="55"/>
       <c r="D76" s="20"/>
@@ -9070,7 +9118,7 @@
     <row r="77" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="45"/>
       <c r="B77" s="80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="20"/>
@@ -9146,7 +9194,7 @@
     <row r="78" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="45"/>
       <c r="B78" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="20"/>
@@ -9222,7 +9270,7 @@
     <row r="79" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="45"/>
       <c r="B79" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" s="55"/>
       <c r="D79" s="20"/>
@@ -9298,7 +9346,7 @@
     <row r="80" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="45"/>
       <c r="B80" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" s="55"/>
       <c r="D80" s="20"/>
@@ -9374,7 +9422,7 @@
     <row r="81" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="45"/>
       <c r="B81" s="80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" s="55"/>
       <c r="D81" s="20"/>
@@ -9450,7 +9498,7 @@
     <row r="82" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="45"/>
       <c r="B82" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" s="55"/>
       <c r="D82" s="20"/>
@@ -9526,7 +9574,7 @@
     <row r="83" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="45"/>
       <c r="B83" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" s="55"/>
       <c r="D83" s="20"/>
@@ -9600,7 +9648,7 @@
     <row r="84" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="45"/>
       <c r="B84" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="55"/>
       <c r="D84" s="20"/>
@@ -9676,7 +9724,7 @@
     <row r="85" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="45"/>
       <c r="B85" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" s="55"/>
       <c r="D85" s="20"/>
@@ -9752,7 +9800,7 @@
     <row r="86" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="45"/>
       <c r="B86" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="20"/>
@@ -9830,10 +9878,10 @@
         <v>11</v>
       </c>
       <c r="B87" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="93" t="s">
         <v>44</v>
-      </c>
-      <c r="C87" s="93" t="s">
-        <v>45</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="75"/>
@@ -9903,7 +9951,7 @@
     <row r="88" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="45"/>
       <c r="B88" s="81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C88" s="56"/>
       <c r="D88" s="23">
@@ -9980,7 +10028,7 @@
     <row r="89" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="45"/>
       <c r="B89" s="81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="56"/>
       <c r="D89" s="23"/>
@@ -10056,7 +10104,7 @@
     <row r="90" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="45"/>
       <c r="B90" s="81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="56"/>
       <c r="D90" s="23"/>
@@ -10132,7 +10180,7 @@
     <row r="91" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="45"/>
       <c r="B91" s="81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" s="56"/>
       <c r="D91" s="23"/>
@@ -10208,7 +10256,7 @@
     <row r="92" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="45"/>
       <c r="B92" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="56"/>
       <c r="D92" s="23"/>
@@ -10286,7 +10334,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93" s="57"/>
       <c r="D93" s="25"/>
@@ -10357,7 +10405,7 @@
     <row r="94" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="45"/>
       <c r="B94" s="94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="58"/>
       <c r="D94" s="26">
@@ -10437,11 +10485,11 @@
     <row r="95" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="45"/>
       <c r="B95" s="94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C95" s="58"/>
       <c r="D95" s="25">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E95" s="4">
         <v>43836</v>
@@ -10516,7 +10564,7 @@
         <v>11</v>
       </c>
       <c r="B96" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" s="83"/>
       <c r="D96" s="84"/>
@@ -10586,7 +10634,9 @@
     </row>
     <row r="97" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="45"/>
-      <c r="B97" s="85"/>
+      <c r="B97" s="85">
+        <v>186</v>
+      </c>
       <c r="C97" s="86"/>
       <c r="D97" s="87"/>
       <c r="E97" s="82"/>
@@ -10655,7 +10705,9 @@
     </row>
     <row r="98" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="45"/>
-      <c r="B98" s="85"/>
+      <c r="B98" s="85" t="s">
+        <v>131</v>
+      </c>
       <c r="C98" s="86"/>
       <c r="D98" s="87"/>
       <c r="E98" s="82"/>
@@ -11137,14 +11189,12 @@
       <c r="BL104" s="51"/>
     </row>
     <row r="105" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" s="59"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
       <c r="G105" s="16"/>
       <c r="H105" s="16" t="str">
         <f t="shared" si="5"/>
@@ -11208,87 +11258,158 @@
       <c r="BL105" s="51"/>
     </row>
     <row r="106" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33" t="str">
+      <c r="A106" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="59"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I106" s="62"/>
-      <c r="J106" s="62"/>
-      <c r="K106" s="62"/>
-      <c r="L106" s="62"/>
-      <c r="M106" s="62"/>
-      <c r="N106" s="62"/>
-      <c r="O106" s="62"/>
-      <c r="P106" s="62"/>
-      <c r="Q106" s="62"/>
-      <c r="R106" s="62"/>
-      <c r="S106" s="62"/>
-      <c r="T106" s="62"/>
-      <c r="U106" s="62"/>
-      <c r="V106" s="62"/>
-      <c r="W106" s="62"/>
-      <c r="X106" s="62"/>
-      <c r="Y106" s="62"/>
-      <c r="Z106" s="62"/>
-      <c r="AA106" s="62"/>
-      <c r="AB106" s="62"/>
-      <c r="AC106" s="62"/>
-      <c r="AD106" s="62"/>
-      <c r="AE106" s="62"/>
-      <c r="AF106" s="62"/>
-      <c r="AG106" s="62"/>
-      <c r="AH106" s="62"/>
-      <c r="AI106" s="62"/>
-      <c r="AJ106" s="62"/>
-      <c r="AK106" s="62"/>
-      <c r="AL106" s="62"/>
-      <c r="AM106" s="62"/>
-      <c r="AN106" s="62"/>
-      <c r="AO106" s="62"/>
-      <c r="AP106" s="62"/>
-      <c r="AQ106" s="62"/>
-      <c r="AR106" s="62"/>
-      <c r="AS106" s="62"/>
-      <c r="AT106" s="62"/>
-      <c r="AU106" s="62"/>
-      <c r="AV106" s="62"/>
-      <c r="AW106" s="62"/>
-      <c r="AX106" s="62"/>
-      <c r="AY106" s="62"/>
-      <c r="AZ106" s="62"/>
-      <c r="BA106" s="62"/>
-      <c r="BB106" s="62"/>
-      <c r="BC106" s="62"/>
-      <c r="BD106" s="62"/>
-      <c r="BE106" s="62"/>
-      <c r="BF106" s="62"/>
-      <c r="BG106" s="62"/>
-      <c r="BH106" s="62"/>
-      <c r="BI106" s="62"/>
-      <c r="BJ106" s="62"/>
-      <c r="BK106" s="62"/>
-      <c r="BL106" s="62"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="51"/>
+      <c r="R106" s="51"/>
+      <c r="S106" s="51"/>
+      <c r="T106" s="51"/>
+      <c r="U106" s="51"/>
+      <c r="V106" s="51"/>
+      <c r="W106" s="51"/>
+      <c r="X106" s="51"/>
+      <c r="Y106" s="51"/>
+      <c r="Z106" s="51"/>
+      <c r="AA106" s="51"/>
+      <c r="AB106" s="51"/>
+      <c r="AC106" s="51"/>
+      <c r="AD106" s="51"/>
+      <c r="AE106" s="51"/>
+      <c r="AF106" s="51"/>
+      <c r="AG106" s="51"/>
+      <c r="AH106" s="51"/>
+      <c r="AI106" s="51"/>
+      <c r="AJ106" s="51"/>
+      <c r="AK106" s="51"/>
+      <c r="AL106" s="51"/>
+      <c r="AM106" s="51"/>
+      <c r="AN106" s="51"/>
+      <c r="AO106" s="51"/>
+      <c r="AP106" s="51"/>
+      <c r="AQ106" s="51"/>
+      <c r="AR106" s="51"/>
+      <c r="AS106" s="51"/>
+      <c r="AT106" s="51"/>
+      <c r="AU106" s="51"/>
+      <c r="AV106" s="51"/>
+      <c r="AW106" s="51"/>
+      <c r="AX106" s="51"/>
+      <c r="AY106" s="51"/>
+      <c r="AZ106" s="51"/>
+      <c r="BA106" s="51"/>
+      <c r="BB106" s="51"/>
+      <c r="BC106" s="51"/>
+      <c r="BD106" s="51"/>
+      <c r="BE106" s="51"/>
+      <c r="BF106" s="51"/>
+      <c r="BG106" s="51"/>
+      <c r="BH106" s="51"/>
+      <c r="BI106" s="51"/>
+      <c r="BJ106" s="51"/>
+      <c r="BK106" s="51"/>
+      <c r="BL106" s="51"/>
     </row>
-    <row r="107" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G107" s="63"/>
+    <row r="107" spans="1:64" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="29"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I107" s="62"/>
+      <c r="J107" s="62"/>
+      <c r="K107" s="62"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="62"/>
+      <c r="O107" s="62"/>
+      <c r="P107" s="62"/>
+      <c r="Q107" s="62"/>
+      <c r="R107" s="62"/>
+      <c r="S107" s="62"/>
+      <c r="T107" s="62"/>
+      <c r="U107" s="62"/>
+      <c r="V107" s="62"/>
+      <c r="W107" s="62"/>
+      <c r="X107" s="62"/>
+      <c r="Y107" s="62"/>
+      <c r="Z107" s="62"/>
+      <c r="AA107" s="62"/>
+      <c r="AB107" s="62"/>
+      <c r="AC107" s="62"/>
+      <c r="AD107" s="62"/>
+      <c r="AE107" s="62"/>
+      <c r="AF107" s="62"/>
+      <c r="AG107" s="62"/>
+      <c r="AH107" s="62"/>
+      <c r="AI107" s="62"/>
+      <c r="AJ107" s="62"/>
+      <c r="AK107" s="62"/>
+      <c r="AL107" s="62"/>
+      <c r="AM107" s="62"/>
+      <c r="AN107" s="62"/>
+      <c r="AO107" s="62"/>
+      <c r="AP107" s="62"/>
+      <c r="AQ107" s="62"/>
+      <c r="AR107" s="62"/>
+      <c r="AS107" s="62"/>
+      <c r="AT107" s="62"/>
+      <c r="AU107" s="62"/>
+      <c r="AV107" s="62"/>
+      <c r="AW107" s="62"/>
+      <c r="AX107" s="62"/>
+      <c r="AY107" s="62"/>
+      <c r="AZ107" s="62"/>
+      <c r="BA107" s="62"/>
+      <c r="BB107" s="62"/>
+      <c r="BC107" s="62"/>
+      <c r="BD107" s="62"/>
+      <c r="BE107" s="62"/>
+      <c r="BF107" s="62"/>
+      <c r="BG107" s="62"/>
+      <c r="BH107" s="62"/>
+      <c r="BI107" s="62"/>
+      <c r="BJ107" s="62"/>
+      <c r="BK107" s="62"/>
+      <c r="BL107" s="62"/>
     </row>
     <row r="108" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="F108" s="34"/>
+      <c r="G108" s="63"/>
     </row>
     <row r="109" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="35"/>
+      <c r="C109" s="9"/>
+      <c r="F109" s="34"/>
+    </row>
+    <row r="110" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -11306,8 +11427,8 @@
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D105:D106 D87:D94 D19 D7:D11">
-    <cfRule type="dataBar" priority="191">
+  <conditionalFormatting sqref="D106:D107 D87:D94 D19 D7:D11">
+    <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11320,21 +11441,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL11 I105:BL106 I87:BL95 I19:BL19">
-    <cfRule type="expression" dxfId="74" priority="210">
+  <conditionalFormatting sqref="I5:BL11 I106:BL107 I87:BL95 I19:BL19">
+    <cfRule type="expression" dxfId="77" priority="214">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL11 I105:BL106 I87:BL95 I19:BL19">
-    <cfRule type="expression" dxfId="73" priority="204">
+  <conditionalFormatting sqref="I7:BL11 I106:BL107 I87:BL95 I19:BL19">
+    <cfRule type="expression" dxfId="76" priority="208">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="209" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D96:D100 D104">
-    <cfRule type="dataBar" priority="154">
+  <conditionalFormatting sqref="D96 D105 D98:D101">
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11347,21 +11468,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96:BL100 I104:BL104">
-    <cfRule type="expression" dxfId="71" priority="157">
+  <conditionalFormatting sqref="I96:BL96 I105:BL105 I98:BL101">
+    <cfRule type="expression" dxfId="74" priority="161">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96:BL100 I104:BL104">
-    <cfRule type="expression" dxfId="70" priority="155">
+  <conditionalFormatting sqref="I96:BL96 I105:BL105 I98:BL101">
+    <cfRule type="expression" dxfId="73" priority="159">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="160" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="dataBar" priority="150">
+  <conditionalFormatting sqref="D102">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11374,21 +11495,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I101:BL101">
-    <cfRule type="expression" dxfId="68" priority="153">
+  <conditionalFormatting sqref="I102:BL102">
+    <cfRule type="expression" dxfId="71" priority="157">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I101:BL101">
-    <cfRule type="expression" dxfId="67" priority="151">
+  <conditionalFormatting sqref="I102:BL102">
+    <cfRule type="expression" dxfId="70" priority="155">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
-    <cfRule type="dataBar" priority="146">
+  <conditionalFormatting sqref="D103">
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11401,21 +11522,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I102:BL102">
-    <cfRule type="expression" dxfId="65" priority="149">
+  <conditionalFormatting sqref="I103:BL103">
+    <cfRule type="expression" dxfId="68" priority="153">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I102:BL102">
-    <cfRule type="expression" dxfId="64" priority="147">
+  <conditionalFormatting sqref="I103:BL103">
+    <cfRule type="expression" dxfId="67" priority="151">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="152" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
-    <cfRule type="dataBar" priority="142">
+  <conditionalFormatting sqref="D104">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11428,21 +11549,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:BL103">
-    <cfRule type="expression" dxfId="62" priority="145">
+  <conditionalFormatting sqref="I104:BL104">
+    <cfRule type="expression" dxfId="65" priority="149">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:BL103">
-    <cfRule type="expression" dxfId="61" priority="143">
+  <conditionalFormatting sqref="I104:BL104">
+    <cfRule type="expression" dxfId="64" priority="147">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="148" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="dataBar" priority="82">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11456,20 +11577,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL13 I18:BL18">
-    <cfRule type="expression" dxfId="59" priority="85">
+    <cfRule type="expression" dxfId="62" priority="89">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL13 I18:BL18">
-    <cfRule type="expression" dxfId="58" priority="83">
+    <cfRule type="expression" dxfId="61" priority="87">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="88" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11483,11 +11604,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:BL14">
+    <cfRule type="expression" dxfId="59" priority="85">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:BL14">
+    <cfRule type="expression" dxfId="58" priority="83">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="84" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:BL17">
     <cfRule type="expression" dxfId="56" priority="81">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:BL14">
+  <conditionalFormatting sqref="I17:BL17">
     <cfRule type="expression" dxfId="55" priority="79">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -11495,12 +11629,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL17">
+  <conditionalFormatting sqref="I16:BL16">
     <cfRule type="expression" dxfId="53" priority="77">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL17">
+  <conditionalFormatting sqref="I16:BL16">
     <cfRule type="expression" dxfId="52" priority="75">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -11508,12 +11642,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
+  <conditionalFormatting sqref="I15:BL15">
     <cfRule type="expression" dxfId="50" priority="73">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BL16">
+  <conditionalFormatting sqref="I15:BL15">
     <cfRule type="expression" dxfId="49" priority="71">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -11521,21 +11655,8 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="47" priority="69">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="46" priority="67">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="68" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D14:D18">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11549,7 +11670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D24">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11563,11 +11684,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BL23">
+    <cfRule type="expression" dxfId="47" priority="68">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:BL23">
+    <cfRule type="expression" dxfId="46" priority="66">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="67" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:BL24">
     <cfRule type="expression" dxfId="44" priority="64">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL23">
+  <conditionalFormatting sqref="I24:BL24">
     <cfRule type="expression" dxfId="43" priority="62">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -11575,21 +11709,8 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="41" priority="60">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="40" priority="58">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="59" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11603,20 +11724,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="38" priority="56">
+    <cfRule type="expression" dxfId="41" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="37" priority="54">
+    <cfRule type="expression" dxfId="40" priority="58">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D36 D86">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11630,11 +11751,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL36 I86:BL86">
+    <cfRule type="expression" dxfId="38" priority="56">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:BL36 I86:BL86">
+    <cfRule type="expression" dxfId="37" priority="54">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="55" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL40">
     <cfRule type="expression" dxfId="35" priority="52">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL36 I86:BL86">
+  <conditionalFormatting sqref="I37:BL40">
     <cfRule type="expression" dxfId="34" priority="50">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -11642,21 +11776,8 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL40">
-    <cfRule type="expression" dxfId="32" priority="48">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL40">
-    <cfRule type="expression" dxfId="31" priority="46">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="47" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11670,20 +11791,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="29" priority="44">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="28" priority="42">
+    <cfRule type="expression" dxfId="31" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11697,20 +11818,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="29" priority="44">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="28" priority="42">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D53">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11724,20 +11845,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL54">
-    <cfRule type="expression" dxfId="23" priority="36">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL54">
-    <cfRule type="expression" dxfId="22" priority="34">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11751,7 +11872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:D69">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11765,7 +11886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D65">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11779,11 +11900,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL65">
+    <cfRule type="expression" dxfId="23" priority="35">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL65">
+    <cfRule type="expression" dxfId="22" priority="33">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="34" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:BL69">
     <cfRule type="expression" dxfId="20" priority="31">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL65">
+  <conditionalFormatting sqref="I66:BL69">
     <cfRule type="expression" dxfId="19" priority="29">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -11791,21 +11925,8 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL69">
-    <cfRule type="expression" dxfId="17" priority="27">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL69">
-    <cfRule type="expression" dxfId="16" priority="25">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="26" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11819,20 +11940,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:BL70">
-    <cfRule type="expression" dxfId="14" priority="23">
+    <cfRule type="expression" dxfId="17" priority="27">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:BL70">
-    <cfRule type="expression" dxfId="13" priority="21">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11846,20 +11967,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:BL71">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:BL71">
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:D82">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11873,20 +11994,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:BL83">
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:BL83">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11900,7 +12021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11914,20 +12035,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84:BL84">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84:BL84">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="13" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11941,20 +12062,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:BL85">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:BL85">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11965,6 +12086,33 @@
           <x14:id>{4A188CC6-F6F9-4C9E-8385-875C59106CD7}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1123FFC6-4920-4CF8-9EED-E9E616D4FD72}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97:BL97">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97:BL97">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -11994,7 +12142,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D105:D106 D87:D94 D19 D7:D11</xm:sqref>
+          <xm:sqref>D106:D107 D87:D94 D19 D7:D11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D2687AE-507A-4594-B59D-CE6E951D3C0B}">
@@ -12009,7 +12157,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D96:D100 D104</xm:sqref>
+          <xm:sqref>D96 D105 D98:D101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F74930FC-F3C9-4F62-9CC5-0828EF181132}">
@@ -12024,7 +12172,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D101</xm:sqref>
+          <xm:sqref>D102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E156B2B-67D0-4BAA-97F3-6FA5A2C6527C}">
@@ -12039,7 +12187,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D102</xm:sqref>
+          <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F97FDD9-EF27-4559-B8A9-37DC6A46E92D}">
@@ -12054,7 +12202,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D103</xm:sqref>
+          <xm:sqref>D104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{48F437F0-2D4C-4E10-B001-0BDA56B6A2A6}">
@@ -12341,6 +12489,21 @@
           </x14:cfRule>
           <xm:sqref>D95</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1123FFC6-4920-4CF8-9EED-E9E616D4FD72}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D97</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
